--- a/data/TablesZhangetal2017_07_22.xlsx
+++ b/data/TablesZhangetal2017_07_22.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nanin\Documents\Paper Willem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECB4136-6DF3-40D6-9D1D-A8D5C830D5A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8A32F0-D6EE-4333-95DB-07F01F7D8EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="0" windowWidth="19180" windowHeight="10200" firstSheet="1" activeTab="1" xr2:uid="{B1C3C98C-7119-441C-AC65-FC55BF675211}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2376" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2377" uniqueCount="754">
   <si>
     <t>Watershed #</t>
   </si>
@@ -493,9 +493,6 @@
     <t>Blackie,1993</t>
   </si>
   <si>
-    <t>B. Monac.</t>
-  </si>
-  <si>
     <t>Barratta</t>
   </si>
   <si>
@@ -1805,9 +1802,6 @@
   </si>
   <si>
     <t>NA</t>
-  </si>
-  <si>
-    <t>willem</t>
   </si>
   <si>
     <t xml:space="preserve">reference should be Bosch, J.M., Hewlett, J.D., 1982. A review of catchment experiments to determine the effect of vegetation changes on water yield and evapotranspiration. Journal of Hydrology, 55: 3-23. </t>
@@ -2329,10 +2323,25 @@
     <t xml:space="preserve">catc B, in Becn 2013 time was calculated considering landuse maps and data availability </t>
   </si>
   <si>
-    <t>190562)</t>
-  </si>
-  <si>
-    <t>data from NOAA Belchertown (station</t>
+    <t>data from NOAA Belchertown (station 190562)</t>
+  </si>
+  <si>
+    <t>Dongzhuanggou and Yangjiagou subcatchments</t>
+  </si>
+  <si>
+    <t>coordinates addedfrom GM. They are not in tha paper and could not find them anywhere</t>
+  </si>
+  <si>
+    <t>coordinates addedfrom GM as Umstead Research Station</t>
+  </si>
+  <si>
+    <t>B. Monachyle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coordinates from GM as there is no map in the paper. </t>
+  </si>
+  <si>
+    <t>Coordinates from GM as there is no map in the paper. Monachyle and Kirkton catchments with the reference gauge at Tulloch Farm</t>
   </si>
 </sst>
 </file>
@@ -2428,7 +2437,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF7F7F7"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2484,7 +2493,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -2569,12 +2578,16 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2929,10 +2942,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="I1" s="13" t="s">
         <v>8</v>
@@ -2944,22 +2957,22 @@
         <v>11</v>
       </c>
       <c r="L1" s="19" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="M1" s="19" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="N1" s="19" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="O1" s="19" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="Q1" s="19" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -3003,16 +3016,16 @@
         <v>-51.149718999999997</v>
       </c>
       <c r="N2" s="18" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="O2" s="20" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="Q2" s="17" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -3056,16 +3069,16 @@
         <v>-35</v>
       </c>
       <c r="N3" s="18" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O3" s="21" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="P3" s="17" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="Q3" s="17" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -3109,16 +3122,16 @@
         <v>103</v>
       </c>
       <c r="N4" s="18" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="O4" s="20" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="P4" s="17" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="Q4" s="17" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="101.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3162,13 +3175,13 @@
         <v>106.01</v>
       </c>
       <c r="N5" s="18" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O5" s="20" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="Q5" s="17" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -3212,16 +3225,16 @@
         <v>-121.74717099999999</v>
       </c>
       <c r="N6" s="18" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O6" s="20" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="P6" s="17" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="Q6" s="17" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -3265,13 +3278,13 @@
         <v>42</v>
       </c>
       <c r="N7" s="18" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O7" s="20" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="Q7" s="17" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -3309,19 +3322,19 @@
         <v>36</v>
       </c>
       <c r="L8" s="14" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="M8" s="14">
         <v>-121.783788</v>
       </c>
       <c r="N8" s="18" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O8" s="20" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="Q8" s="17" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -3365,13 +3378,13 @@
         <v>145.14536200000001</v>
       </c>
       <c r="N9" s="18" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O9" s="20" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="Q9" s="17" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -3406,7 +3419,7 @@
         <v>40</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="L10" s="14">
         <v>37.5</v>
@@ -3415,16 +3428,16 @@
         <v>110</v>
       </c>
       <c r="N10" s="18" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O10" s="20" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="P10" s="17" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="Q10" s="17" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -3468,13 +3481,13 @@
         <v>146.38759999999999</v>
       </c>
       <c r="N11" s="18" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O11" s="20" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="Q11" s="17" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -3518,13 +3531,13 @@
         <v>-72</v>
       </c>
       <c r="N12" s="18" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O12" s="20" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="Q12" s="17" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -3568,13 +3581,13 @@
         <v>102</v>
       </c>
       <c r="N13" s="18" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O13" s="20" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="Q13" s="17" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="217.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3609,7 +3622,7 @@
         <v>40</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="L14" s="14">
         <v>38</v>
@@ -3618,16 +3631,16 @@
         <v>112</v>
       </c>
       <c r="N14" s="18" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O14" s="20" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="P14" s="18" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="Q14" s="17" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -3671,13 +3684,13 @@
         <v>113.82366500000001</v>
       </c>
       <c r="N15" s="18" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="O15" s="20" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="Q15" s="17" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="217.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3712,7 +3725,7 @@
         <v>40</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="L16" s="14">
         <v>39</v>
@@ -3721,13 +3734,13 @@
         <v>111</v>
       </c>
       <c r="N16" s="18" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="O16" s="20" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="P16" s="18" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -3771,16 +3784,16 @@
         <v>-67.126231000000004</v>
       </c>
       <c r="N17" s="18" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="O17" s="20">
         <v>2000</v>
       </c>
       <c r="P17" s="18" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="Q17" s="17" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="217.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3815,7 +3828,7 @@
         <v>40</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="L18" s="14">
         <v>37.5</v>
@@ -3824,13 +3837,13 @@
         <v>110</v>
       </c>
       <c r="N18" s="18" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O18" s="20" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="P18" s="18" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -3874,13 +3887,13 @@
         <v>-69.428865000000002</v>
       </c>
       <c r="N19" s="18" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O19" s="20" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="Q19" s="17" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -3924,13 +3937,13 @@
         <v>99.333332999999996</v>
       </c>
       <c r="N20" s="18" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O20" s="20" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="Q20" s="17" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -3974,13 +3987,13 @@
         <v>102</v>
       </c>
       <c r="N21" s="18" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="O21" s="20" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="Q21" s="17" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="217.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4015,7 +4028,7 @@
         <v>40</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="L22" s="14">
         <v>40</v>
@@ -4024,13 +4037,13 @@
         <v>110</v>
       </c>
       <c r="N22" s="18" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O22" s="20" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="P22" s="18" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -4074,16 +4087,16 @@
         <v>74.569999999999993</v>
       </c>
       <c r="N23" s="18" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="O23" s="20" t="s">
+        <v>663</v>
+      </c>
+      <c r="P23" s="18" t="s">
+        <v>664</v>
+      </c>
+      <c r="Q23" s="17" t="s">
         <v>665</v>
-      </c>
-      <c r="P23" s="18" t="s">
-        <v>666</v>
-      </c>
-      <c r="Q23" s="17" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -4127,16 +4140,16 @@
         <v>64.45</v>
       </c>
       <c r="N24" s="18" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="O24" s="20" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="P24" s="18" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="Q24" s="17" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -4180,16 +4193,16 @@
         <v>-75</v>
       </c>
       <c r="N25" s="18" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="O25" s="20" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="P25" s="18" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="Q25" s="17" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -4233,16 +4246,16 @@
         <v>74.86</v>
       </c>
       <c r="N26" s="18" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="O26" s="20" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="P26" s="18" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="Q26" s="17" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -4284,13 +4297,13 @@
         <v>146.41505900000001</v>
       </c>
       <c r="N27" s="18" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="O27" s="20" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="Q27" s="17" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -4334,13 +4347,13 @@
         <v>47.95</v>
       </c>
       <c r="N28" s="18" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="O28" s="20" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="P28" s="18" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4382,13 +4395,13 @@
         <v>147.78577000000001</v>
       </c>
       <c r="N29" s="18" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="O29" s="20" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="Q29" s="17" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -4432,13 +4445,13 @@
         <v>-62.310093999999999</v>
       </c>
       <c r="N30" s="18" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O30" s="20" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="Q30" s="17" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="58" customHeight="1" x14ac:dyDescent="0.25">
@@ -4482,13 +4495,13 @@
         <v>116</v>
       </c>
       <c r="N31" s="18" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O31" s="20" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="Q31" s="17" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="58" customHeight="1" x14ac:dyDescent="0.25">
@@ -4532,13 +4545,13 @@
         <v>116</v>
       </c>
       <c r="N32" s="18" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O32" s="20" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="Q32" s="22" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="292.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4582,16 +4595,16 @@
         <v>117</v>
       </c>
       <c r="N33" s="18" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O33" s="20" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="P33" s="20" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="Q33" s="17" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -4635,13 +4648,13 @@
         <v>-115</v>
       </c>
       <c r="N34" s="18" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="O34" s="20" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="Q34" s="17" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -4683,10 +4696,10 @@
         <v>144.31499099999999</v>
       </c>
       <c r="N35" s="18" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="O35" s="20" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -4728,10 +4741,10 @@
         <v>146.58919499999999</v>
       </c>
       <c r="N36" s="18" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="O36" s="20" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -4775,13 +4788,13 @@
         <v>105.05812</v>
       </c>
       <c r="N37" s="18" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="O37" s="20" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="Q37" s="17" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -4825,7 +4838,7 @@
         <v>-77.984307000000001</v>
       </c>
       <c r="N38" s="18" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="O38" s="20">
         <v>2000</v>
@@ -4872,13 +4885,13 @@
         <v>-122.5</v>
       </c>
       <c r="N39" s="18" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O39" s="20" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Q39" s="22" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -4922,10 +4935,10 @@
         <v>-66.358485000000002</v>
       </c>
       <c r="N40" s="18" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O40" s="20" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -4969,13 +4982,13 @@
         <v>2.9997159999999998</v>
       </c>
       <c r="N41" s="18" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="O41" s="20" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="Q41" s="22" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="217.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5010,7 +5023,7 @@
         <v>40</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="L42" s="14">
         <v>37</v>
@@ -5019,13 +5032,13 @@
         <v>111</v>
       </c>
       <c r="N42" s="18" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O42" s="20" t="s">
+        <v>630</v>
+      </c>
+      <c r="P42" s="18" t="s">
         <v>632</v>
-      </c>
-      <c r="P42" s="18" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="217.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5060,7 +5073,7 @@
         <v>40</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="L43" s="14">
         <v>35</v>
@@ -5069,13 +5082,13 @@
         <v>110</v>
       </c>
       <c r="N43" s="18" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O43" s="20" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="P43" s="18" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="72.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5119,13 +5132,13 @@
         <v>-66.321481000000006</v>
       </c>
       <c r="N44" s="18" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="O44" s="20">
         <v>2000</v>
       </c>
       <c r="P44" s="18" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="87" customHeight="1" x14ac:dyDescent="0.25">
@@ -5169,13 +5182,13 @@
         <v>-66.321481000000006</v>
       </c>
       <c r="N45" s="18" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="O45" s="20">
         <v>2000</v>
       </c>
       <c r="P45" s="18" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -5219,13 +5232,13 @@
         <v>102.52542200000001</v>
       </c>
       <c r="N46" s="18" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="O46" s="20">
         <v>1995</v>
       </c>
       <c r="Q46" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -5269,16 +5282,16 @@
         <v>1.1273260000000001</v>
       </c>
       <c r="N47" s="18" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="O47" s="20" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="P47" s="18" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="Q47" s="17" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="58" customHeight="1" x14ac:dyDescent="0.25">
@@ -5322,13 +5335,13 @@
         <v>-56.925654999999999</v>
       </c>
       <c r="N48" s="18" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="O48" s="20">
         <v>2000</v>
       </c>
       <c r="P48" s="18" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="87" customHeight="1" x14ac:dyDescent="0.25">
@@ -5372,16 +5385,16 @@
         <v>108.83333333333333</v>
       </c>
       <c r="N49" s="18" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O49" s="20" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="P49" s="18" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="Q49" s="17" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -5425,13 +5438,13 @@
         <v>-48</v>
       </c>
       <c r="N50" s="18" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O50" s="20" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="Q50" s="17" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5475,16 +5488,16 @@
         <v>-55.68333333333333</v>
       </c>
       <c r="N51" s="18" t="s">
+        <v>603</v>
+      </c>
+      <c r="O51" s="20" t="s">
+        <v>604</v>
+      </c>
+      <c r="P51" s="18" t="s">
         <v>605</v>
       </c>
-      <c r="O51" s="20" t="s">
-        <v>606</v>
-      </c>
-      <c r="P51" s="18" t="s">
-        <v>607</v>
-      </c>
       <c r="Q51" s="17" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="116" customHeight="1" x14ac:dyDescent="0.25">
@@ -5528,16 +5541,16 @@
         <v>103</v>
       </c>
       <c r="N52" s="18" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O52" s="20" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="P52" s="18" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="Q52" s="17" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="30" x14ac:dyDescent="0.25">
@@ -5581,13 +5594,13 @@
         <v>100</v>
       </c>
       <c r="N53" s="18" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="O53" s="20" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="Q53" s="17" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="54" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -5629,10 +5642,10 @@
         <v>147.299948</v>
       </c>
       <c r="N54" s="18" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="O54" s="20" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="55" spans="1:17" ht="217.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5667,7 +5680,7 @@
         <v>40</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="L55" s="14">
         <v>37.5</v>
@@ -5676,13 +5689,13 @@
         <v>111</v>
       </c>
       <c r="N55" s="18" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O55" s="20" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="P55" s="18" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="56" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -5726,13 +5739,13 @@
         <v>54.2</v>
       </c>
       <c r="N56" s="18" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="O56" s="20" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="Q56" s="17" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -5776,13 +5789,13 @@
         <v>109.849656</v>
       </c>
       <c r="N57" s="18" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O57" s="20" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="Q57" s="17" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="58" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -5824,13 +5837,13 @@
         <v>110.66666666666667</v>
       </c>
       <c r="N58" s="18" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O58" s="20" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="Q58" s="17" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="59" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -5874,13 +5887,13 @@
         <v>128.69999999999999</v>
       </c>
       <c r="N59" s="18" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="O59" s="20" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="Q59" s="17" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="60" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -5924,7 +5937,7 @@
         <v>-52.655372</v>
       </c>
       <c r="N60" s="18" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="O60" s="20">
         <v>2000</v>
@@ -5962,7 +5975,7 @@
         <v>40</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="L61" s="14">
         <v>38</v>
@@ -5971,13 +5984,13 @@
         <v>111</v>
       </c>
       <c r="N61" s="18" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O61" s="20" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="P61" s="18" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="62" spans="1:17" ht="218" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6012,7 +6025,7 @@
         <v>40</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="L62" s="16">
         <v>36</v>
@@ -6021,13 +6034,13 @@
         <v>110</v>
       </c>
       <c r="N62" s="18" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O62" s="20" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="P62" s="18" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
   </sheetData>
@@ -6045,17 +6058,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C628113C-78B0-4B5D-8B46-887DA17257C6}">
-  <dimension ref="A1:S252"/>
+  <dimension ref="A1:T252"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomLeft" activeCell="O200" sqref="O200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="15.6328125" customWidth="1"/>
+    <col min="4" max="9" width="0" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.1796875" customWidth="1"/>
     <col min="15" max="15" width="16.26953125" customWidth="1"/>
@@ -6087,7 +6101,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="J1" s="19" t="s">
         <v>10</v>
@@ -6096,28 +6110,28 @@
         <v>11</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="M1" t="s">
+        <v>550</v>
+      </c>
+      <c r="N1" t="s">
         <v>551</v>
       </c>
-      <c r="N1" t="s">
-        <v>552</v>
-      </c>
       <c r="O1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="P1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="Q1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="R1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="S1" s="19" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="30" x14ac:dyDescent="0.35">
@@ -6125,7 +6139,7 @@
         <v>158</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C2" s="2">
         <v>2.89</v>
@@ -6152,7 +6166,7 @@
         <v>16</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2">
@@ -6163,7 +6177,7 @@
       </c>
       <c r="O2" s="26"/>
       <c r="P2" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="20" x14ac:dyDescent="0.35">
@@ -6171,7 +6185,7 @@
         <v>264</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C3" s="2">
         <v>2.89</v>
@@ -6198,7 +6212,7 @@
         <v>16</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3">
@@ -6209,7 +6223,7 @@
       </c>
       <c r="O3" s="26"/>
       <c r="P3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="Q3">
         <v>1955</v>
@@ -6218,7 +6232,7 @@
         <v>1980</v>
       </c>
       <c r="S3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="20" x14ac:dyDescent="0.35">
@@ -6226,7 +6240,7 @@
         <v>265</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C4" s="2">
         <v>2.89</v>
@@ -6253,7 +6267,7 @@
         <v>16</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4">
@@ -6264,7 +6278,7 @@
       </c>
       <c r="O4" s="26"/>
       <c r="P4" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="Q4">
         <v>1955</v>
@@ -6273,7 +6287,7 @@
         <v>1980</v>
       </c>
       <c r="S4" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="20" x14ac:dyDescent="0.35">
@@ -6281,7 +6295,7 @@
         <v>157</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C5" s="2">
         <v>2.89</v>
@@ -6308,7 +6322,7 @@
         <v>16</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5">
@@ -6319,7 +6333,7 @@
       </c>
       <c r="O5" s="26"/>
       <c r="P5" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="Q5">
         <v>1955</v>
@@ -6328,7 +6342,7 @@
         <v>1980</v>
       </c>
       <c r="S5" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -6336,7 +6350,7 @@
         <v>153</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C6" s="2">
         <v>2.89</v>
@@ -6363,7 +6377,7 @@
         <v>16</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6">
@@ -6374,7 +6388,7 @@
       </c>
       <c r="O6" s="26"/>
       <c r="P6" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="Q6">
         <v>1955</v>
@@ -6383,7 +6397,7 @@
         <v>1980</v>
       </c>
       <c r="S6" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="20" x14ac:dyDescent="0.35">
@@ -6391,7 +6405,7 @@
         <v>156</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C7" s="2">
         <v>2.89</v>
@@ -6418,7 +6432,7 @@
         <v>16</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7">
@@ -6429,7 +6443,7 @@
       </c>
       <c r="O7" s="26"/>
       <c r="P7" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="Q7">
         <v>1955</v>
@@ -6438,7 +6452,7 @@
         <v>1980</v>
       </c>
       <c r="S7" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="20" x14ac:dyDescent="0.35">
@@ -6446,7 +6460,7 @@
         <v>124</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C8" s="2">
         <v>0.25</v>
@@ -6473,7 +6487,7 @@
         <v>16</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8">
@@ -6490,7 +6504,7 @@
         <v>2007</v>
       </c>
       <c r="S8" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="20" x14ac:dyDescent="0.35">
@@ -6498,7 +6512,7 @@
         <v>76</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C9" s="2">
         <v>1.47</v>
@@ -6525,7 +6539,7 @@
         <v>16</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9">
@@ -6536,7 +6550,7 @@
       </c>
       <c r="O9" s="26"/>
       <c r="P9" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="Q9">
         <v>1958</v>
@@ -6545,7 +6559,7 @@
         <v>1969</v>
       </c>
       <c r="S9" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="20" x14ac:dyDescent="0.35">
@@ -6553,7 +6567,7 @@
         <v>210</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C10" s="2">
         <v>2.48</v>
@@ -6580,7 +6594,7 @@
         <v>16</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10">
@@ -6597,7 +6611,7 @@
         <v>1991</v>
       </c>
       <c r="S10" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="20" x14ac:dyDescent="0.35">
@@ -6605,7 +6619,7 @@
         <v>90</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C11" s="9">
         <v>119</v>
@@ -6632,7 +6646,7 @@
         <v>16</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11">
@@ -6647,7 +6661,7 @@
         <v>5</v>
       </c>
       <c r="P11" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="Q11">
         <v>1980</v>
@@ -6656,7 +6670,7 @@
         <v>1984</v>
       </c>
       <c r="S11" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="20" x14ac:dyDescent="0.35">
@@ -6664,7 +6678,7 @@
         <v>199</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C12" s="2">
         <v>54</v>
@@ -6691,7 +6705,7 @@
         <v>16</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12">
@@ -6706,7 +6720,7 @@
         <v>5</v>
       </c>
       <c r="P12" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="Q12">
         <v>1986</v>
@@ -6715,7 +6729,7 @@
         <v>1990</v>
       </c>
       <c r="S12" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="20" x14ac:dyDescent="0.35">
@@ -6723,7 +6737,7 @@
         <v>256</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C13" s="9">
         <v>104</v>
@@ -6750,7 +6764,7 @@
         <v>16</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13">
@@ -6765,7 +6779,7 @@
         <v>5</v>
       </c>
       <c r="P13" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="Q13">
         <v>1986</v>
@@ -6774,7 +6788,7 @@
         <v>1990</v>
       </c>
       <c r="S13" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="20" x14ac:dyDescent="0.35">
@@ -6782,7 +6796,7 @@
         <v>257</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C14" s="2">
         <v>130</v>
@@ -6809,7 +6823,7 @@
         <v>16</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14">
@@ -6824,7 +6838,7 @@
         <v>5</v>
       </c>
       <c r="P14" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="Q14">
         <v>1986</v>
@@ -6833,7 +6847,7 @@
         <v>1990</v>
       </c>
       <c r="S14" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="20" x14ac:dyDescent="0.35">
@@ -6841,7 +6855,7 @@
         <v>292</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C15" s="2">
         <v>0.81</v>
@@ -6868,7 +6882,7 @@
         <v>16</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15">
@@ -6887,7 +6901,7 @@
         <v>1926</v>
       </c>
       <c r="S15" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="20" x14ac:dyDescent="0.35">
@@ -6895,7 +6909,7 @@
         <v>73</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C16" s="2">
         <v>43.5</v>
@@ -6922,7 +6936,7 @@
         <v>21</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16">
@@ -6935,16 +6949,16 @@
         <v>28</v>
       </c>
       <c r="P16" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="Q16">
         <v>1970</v>
       </c>
       <c r="R16" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="S16" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="20" x14ac:dyDescent="0.35">
@@ -6952,7 +6966,7 @@
         <v>89</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C17" s="2">
         <v>26.5</v>
@@ -6979,7 +6993,7 @@
         <v>21</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17">
@@ -6992,7 +7006,7 @@
         <v>32</v>
       </c>
       <c r="P17" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="Q17">
         <v>1968</v>
@@ -7001,7 +7015,7 @@
         <v>2000</v>
       </c>
       <c r="S17" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="20" x14ac:dyDescent="0.35">
@@ -7009,7 +7023,7 @@
         <v>97</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C18" s="2">
         <v>39.799999999999997</v>
@@ -7036,7 +7050,7 @@
         <v>21</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18">
@@ -7049,7 +7063,7 @@
         <v>30</v>
       </c>
       <c r="P18" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="Q18">
         <v>1970</v>
@@ -7058,7 +7072,7 @@
         <v>2000</v>
       </c>
       <c r="S18" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="20" x14ac:dyDescent="0.35">
@@ -7066,7 +7080,7 @@
         <v>123</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C19" s="2">
         <v>177.1</v>
@@ -7093,7 +7107,7 @@
         <v>21</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19">
@@ -7106,7 +7120,7 @@
         <v>32</v>
       </c>
       <c r="P19" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="Q19">
         <v>1968</v>
@@ -7115,7 +7129,7 @@
         <v>2000</v>
       </c>
       <c r="S19" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="20" x14ac:dyDescent="0.35">
@@ -7123,7 +7137,7 @@
         <v>132</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C20" s="2">
         <v>39.299999999999997</v>
@@ -7150,7 +7164,7 @@
         <v>21</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L20" s="2"/>
       <c r="M20">
@@ -7163,7 +7177,7 @@
         <v>38</v>
       </c>
       <c r="P20" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="Q20">
         <v>1962</v>
@@ -7172,7 +7186,7 @@
         <v>2000</v>
       </c>
       <c r="S20" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="20" x14ac:dyDescent="0.35">
@@ -7180,7 +7194,7 @@
         <v>161</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C21" s="2">
         <v>233</v>
@@ -7207,7 +7221,7 @@
         <v>21</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21">
@@ -7220,7 +7234,7 @@
         <v>40</v>
       </c>
       <c r="P21" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="Q21">
         <v>1960</v>
@@ -7229,7 +7243,7 @@
         <v>2000</v>
       </c>
       <c r="S21" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="20" x14ac:dyDescent="0.35">
@@ -7237,7 +7251,7 @@
         <v>162</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C22" s="2">
         <v>345.9</v>
@@ -7264,7 +7278,7 @@
         <v>21</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22">
@@ -7277,7 +7291,7 @@
         <v>43</v>
       </c>
       <c r="P22" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="Q22">
         <v>1957</v>
@@ -7286,7 +7300,7 @@
         <v>2000</v>
       </c>
       <c r="S22" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="20" x14ac:dyDescent="0.35">
@@ -7294,7 +7308,7 @@
         <v>163</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C23" s="2">
         <v>46.3</v>
@@ -7321,7 +7335,7 @@
         <v>21</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23">
@@ -7334,7 +7348,7 @@
         <v>34</v>
       </c>
       <c r="P23" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="Q23">
         <v>1966</v>
@@ -7343,7 +7357,7 @@
         <v>2000</v>
       </c>
       <c r="S23" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="20" x14ac:dyDescent="0.35">
@@ -7351,7 +7365,7 @@
         <v>181</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C24" s="2">
         <v>24.5</v>
@@ -7378,7 +7392,7 @@
         <v>21</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L24" s="2"/>
       <c r="M24">
@@ -7391,7 +7405,7 @@
         <v>35</v>
       </c>
       <c r="P24" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="Q24">
         <v>1965</v>
@@ -7400,7 +7414,7 @@
         <v>2000</v>
       </c>
       <c r="S24" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="20" x14ac:dyDescent="0.35">
@@ -7408,7 +7422,7 @@
         <v>244</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C25" s="2">
         <v>22.9</v>
@@ -7435,7 +7449,7 @@
         <v>21</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L25" s="2"/>
       <c r="M25">
@@ -7448,7 +7462,7 @@
         <v>35</v>
       </c>
       <c r="P25" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q25">
         <v>1965</v>
@@ -7457,7 +7471,7 @@
         <v>2000</v>
       </c>
       <c r="S25" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="20" x14ac:dyDescent="0.35">
@@ -7465,7 +7479,7 @@
         <v>271</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C26" s="2">
         <v>47.1</v>
@@ -7492,7 +7506,7 @@
         <v>21</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L26" s="2"/>
       <c r="M26">
@@ -7505,7 +7519,7 @@
         <v>40</v>
       </c>
       <c r="P26" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="Q26">
         <v>1960</v>
@@ -7514,7 +7528,7 @@
         <v>2000</v>
       </c>
       <c r="S26" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="20" x14ac:dyDescent="0.35">
@@ -7522,7 +7536,7 @@
         <v>283</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C27" s="2">
         <v>41.5</v>
@@ -7549,7 +7563,7 @@
         <v>21</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L27" s="2"/>
       <c r="M27">
@@ -7562,7 +7576,7 @@
         <v>29</v>
       </c>
       <c r="P27" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="Q27">
         <v>1971</v>
@@ -7571,7 +7585,7 @@
         <v>2000</v>
       </c>
       <c r="S27" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -7579,7 +7593,7 @@
         <v>129</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C28" s="2">
         <v>3.08</v>
@@ -7606,34 +7620,35 @@
         <v>16</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="L28" s="33"/>
-      <c r="M28" s="32">
+        <v>240</v>
+      </c>
+      <c r="L28" s="32"/>
+      <c r="M28" s="33">
         <v>42.283299999999997</v>
       </c>
-      <c r="N28" s="32">
+      <c r="N28" s="33">
         <v>-72.349999999999994</v>
       </c>
-      <c r="O28" s="26">
+      <c r="O28" s="34">
         <v>11</v>
       </c>
-      <c r="P28" t="s">
-        <v>750</v>
-      </c>
-      <c r="Q28">
+      <c r="P28" s="35" t="s">
+        <v>747</v>
+      </c>
+      <c r="Q28" s="35">
         <v>1962</v>
       </c>
-      <c r="R28">
+      <c r="R28" s="35">
         <v>1973</v>
       </c>
+      <c r="S28" s="35"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>131</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C29" s="2">
         <v>2.7</v>
@@ -7660,22 +7675,25 @@
         <v>16</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="L29" s="31">
+        <v>240</v>
+      </c>
+      <c r="L29" s="32">
         <v>1299.5999999999999</v>
       </c>
-      <c r="M29" s="10">
+      <c r="M29" s="35">
         <v>-34.290999999999997</v>
       </c>
-      <c r="N29" s="10">
+      <c r="N29" s="35">
         <v>115.248</v>
       </c>
-      <c r="O29" s="10">
+      <c r="O29" s="35">
         <v>24</v>
       </c>
-      <c r="P29" t="s">
-        <v>749</v>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="35"/>
+      <c r="R29" s="35"/>
+      <c r="S29" s="35" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -7683,7 +7701,7 @@
         <v>224</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C30" s="4">
         <v>36.299999999999997</v>
@@ -7710,9 +7728,27 @@
         <v>16</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L30" s="2"/>
+      <c r="M30">
+        <v>35.683332999999998</v>
+      </c>
+      <c r="N30">
+        <v>107.5</v>
+      </c>
+      <c r="O30" s="26">
+        <v>54</v>
+      </c>
+      <c r="P30" t="s">
+        <v>748</v>
+      </c>
+      <c r="Q30">
+        <v>1954</v>
+      </c>
+      <c r="R30">
+        <v>2008</v>
+      </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
@@ -7749,13 +7785,31 @@
         <v>138</v>
       </c>
       <c r="L31" s="2"/>
+      <c r="M31">
+        <v>56.347392999999997</v>
+      </c>
+      <c r="N31">
+        <v>-4.4697820000000004</v>
+      </c>
+      <c r="O31" s="26">
+        <v>6</v>
+      </c>
+      <c r="P31" t="s">
+        <v>753</v>
+      </c>
+      <c r="Q31">
+        <v>1983</v>
+      </c>
+      <c r="R31">
+        <v>1989</v>
+      </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>71</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>139</v>
+        <v>751</v>
       </c>
       <c r="C32" s="2">
         <v>7.7</v>
@@ -7785,13 +7839,31 @@
         <v>138</v>
       </c>
       <c r="L32" s="2"/>
-    </row>
-    <row r="33" spans="1:18" ht="20" x14ac:dyDescent="0.35">
+      <c r="M32">
+        <v>55.110750000000003</v>
+      </c>
+      <c r="N32">
+        <v>-3.6294140000000001</v>
+      </c>
+      <c r="O32" s="26">
+        <v>6</v>
+      </c>
+      <c r="P32" t="s">
+        <v>752</v>
+      </c>
+      <c r="Q32">
+        <v>1983</v>
+      </c>
+      <c r="R32">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="20" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>168</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C33" s="2">
         <v>0.12</v>
@@ -7818,16 +7890,31 @@
         <v>16</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L33" s="2"/>
-    </row>
-    <row r="34" spans="1:18" ht="20" x14ac:dyDescent="0.35">
+      <c r="M33">
+        <v>36.199168999999998</v>
+      </c>
+      <c r="N33">
+        <v>-78.892207999999997</v>
+      </c>
+      <c r="P33" t="s">
+        <v>749</v>
+      </c>
+      <c r="Q33">
+        <v>2007</v>
+      </c>
+      <c r="R33">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="20" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>169</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C34" s="2">
         <v>0.12</v>
@@ -7854,16 +7941,28 @@
         <v>16</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L34" s="2"/>
-    </row>
-    <row r="35" spans="1:18" ht="20" x14ac:dyDescent="0.35">
+      <c r="M34">
+        <v>36.199168999999998</v>
+      </c>
+      <c r="N34">
+        <v>-78.892207999999997</v>
+      </c>
+      <c r="Q34">
+        <v>2007</v>
+      </c>
+      <c r="R34">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="20" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>170</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C35" s="2">
         <v>0.28999999999999998</v>
@@ -7890,16 +7989,31 @@
         <v>16</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L35" s="2"/>
-    </row>
-    <row r="36" spans="1:18" ht="20" x14ac:dyDescent="0.35">
+      <c r="M35">
+        <v>36.177914999999999</v>
+      </c>
+      <c r="N35">
+        <v>-78.808556999999993</v>
+      </c>
+      <c r="P35" t="s">
+        <v>750</v>
+      </c>
+      <c r="Q35">
+        <v>2007</v>
+      </c>
+      <c r="R35">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="20" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>171</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C36" s="2">
         <v>0.4</v>
@@ -7926,16 +8040,28 @@
         <v>16</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L36" s="2"/>
-    </row>
-    <row r="37" spans="1:18" ht="20" x14ac:dyDescent="0.35">
+      <c r="M36">
+        <v>36.199168999999998</v>
+      </c>
+      <c r="N36">
+        <v>-78.808556999999993</v>
+      </c>
+      <c r="Q36">
+        <v>2007</v>
+      </c>
+      <c r="R36">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="20" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>274</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C37" s="2">
         <v>1.964</v>
@@ -7962,11 +8088,11 @@
         <v>26</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L37" s="2"/>
       <c r="M37" s="12">
-        <v>-33.810141399699802</v>
+        <v>36.177914999999999</v>
       </c>
       <c r="N37" s="12">
         <v>116.003923121299</v>
@@ -7975,12 +8101,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="20" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" ht="20" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>77</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C38" s="2">
         <v>0.27</v>
@@ -8007,19 +8133,23 @@
         <v>16</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="L38" s="31"/>
-      <c r="P38" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" ht="20" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+      <c r="L38" s="32"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="35"/>
+      <c r="O38" s="35"/>
+      <c r="P38" s="35"/>
+      <c r="Q38" s="35"/>
+      <c r="R38" s="35"/>
+      <c r="S38" s="35"/>
+    </row>
+    <row r="39" spans="1:19" ht="20" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>102</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C39" s="2">
         <v>3.91</v>
@@ -8046,24 +8176,29 @@
         <v>16</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="M39" s="2">
+        <v>150</v>
+      </c>
+      <c r="L39" s="35"/>
+      <c r="M39" s="32">
         <v>42.173830140236902</v>
       </c>
-      <c r="N39">
+      <c r="N39" s="35">
         <v>-75.409262268186097</v>
       </c>
-      <c r="P39" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" ht="20" x14ac:dyDescent="0.35">
+      <c r="O39" s="35"/>
+      <c r="P39" s="35" t="s">
+        <v>721</v>
+      </c>
+      <c r="Q39" s="35"/>
+      <c r="R39" s="35"/>
+      <c r="S39" s="35"/>
+    </row>
+    <row r="40" spans="1:19" ht="20" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>117</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C40" s="2">
         <v>0.09</v>
@@ -8090,11 +8225,11 @@
         <v>16</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="1:18" ht="20" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:19" ht="20" x14ac:dyDescent="0.4">
       <c r="A41" s="2">
         <v>64</v>
       </c>
@@ -8144,7 +8279,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="20" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:19" ht="20" x14ac:dyDescent="0.4">
       <c r="A42" s="2">
         <v>65</v>
       </c>
@@ -8195,12 +8330,12 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>251</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
@@ -8227,16 +8362,16 @@
         <v>16</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="1:18" ht="20" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:19" ht="20" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>94</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C44" s="2">
         <v>1.42</v>
@@ -8263,16 +8398,16 @@
         <v>16</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="1:18" ht="20" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" ht="20" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>105</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C45" s="2">
         <v>21.85</v>
@@ -8299,16 +8434,16 @@
         <v>16</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="1:18" ht="20" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:19" ht="20" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>241</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C46" s="2">
         <v>0.52800000000000002</v>
@@ -8335,16 +8470,16 @@
         <v>16</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="1:18" ht="20" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:19" ht="20" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>259</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C47" s="2">
         <v>8.08</v>
@@ -8371,16 +8506,16 @@
         <v>16</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="1:18" ht="20" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:19" ht="20" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>270</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C48" s="2">
         <v>1.18</v>
@@ -8407,7 +8542,7 @@
         <v>16</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="L48" s="31"/>
       <c r="M48">
@@ -8422,7 +8557,7 @@
         <v>28</v>
       </c>
       <c r="P48" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="49" spans="1:18" ht="20" x14ac:dyDescent="0.35">
@@ -8430,7 +8565,7 @@
         <v>278</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C49" s="2">
         <v>1.57</v>
@@ -8457,7 +8592,7 @@
         <v>16</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="L49" s="10"/>
       <c r="M49">
@@ -8473,7 +8608,7 @@
         <v>24</v>
       </c>
       <c r="P49" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="50" spans="1:18" ht="20" x14ac:dyDescent="0.35">
@@ -8481,7 +8616,7 @@
         <v>295</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C50" s="2">
         <v>1</v>
@@ -8508,7 +8643,7 @@
         <v>16</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="L50" s="31"/>
       <c r="M50">
@@ -8523,7 +8658,7 @@
         <v>8</v>
       </c>
       <c r="P50" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.35">
@@ -8531,7 +8666,7 @@
         <v>74</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C51" s="2">
         <v>1.24</v>
@@ -8558,7 +8693,7 @@
         <v>16</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L51" s="2"/>
     </row>
@@ -8598,7 +8733,7 @@
       </c>
       <c r="L52" s="2"/>
       <c r="P52" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="Q52">
         <v>2005</v>
@@ -8648,7 +8783,7 @@
         <v>128</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C54" s="2">
         <v>1.4999999999999999E-2</v>
@@ -8684,7 +8819,7 @@
         <v>188</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C55" s="2">
         <v>0.36399999999999999</v>
@@ -8720,7 +8855,7 @@
         <v>189</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C56" s="4">
         <v>0.35</v>
@@ -8756,7 +8891,7 @@
         <v>197</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C57" s="2">
         <v>0.01</v>
@@ -8792,7 +8927,7 @@
         <v>200</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C58" s="9">
         <v>1.2</v>
@@ -8828,7 +8963,7 @@
         <v>252</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C59" s="2">
         <v>0.377</v>
@@ -8864,7 +8999,7 @@
         <v>253</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C60" s="2">
         <v>0.59199999999999997</v>
@@ -8900,7 +9035,7 @@
         <v>254</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C61" s="2">
         <v>7</v>
@@ -8936,7 +9071,7 @@
         <v>130</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C62" s="2">
         <v>438</v>
@@ -8963,7 +9098,7 @@
         <v>40</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L62" s="2"/>
     </row>
@@ -8972,7 +9107,7 @@
         <v>150</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C63" s="2">
         <v>345</v>
@@ -8999,7 +9134,7 @@
         <v>40</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L63" s="2"/>
     </row>
@@ -9008,7 +9143,7 @@
         <v>249</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C64" s="2">
         <v>65</v>
@@ -9035,16 +9170,16 @@
         <v>21</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L64" s="2"/>
     </row>
-    <row r="65" spans="1:16" ht="20" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:19" ht="20" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>204</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C65" s="2">
         <v>401</v>
@@ -9075,12 +9210,12 @@
       </c>
       <c r="L65" s="2"/>
     </row>
-    <row r="66" spans="1:16" ht="20" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:19" ht="20" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>216</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C66" s="2">
         <v>0.63</v>
@@ -9107,16 +9242,16 @@
         <v>16</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L66" s="2"/>
     </row>
-    <row r="67" spans="1:16" ht="30" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:19" ht="30" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>285</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C67" s="2">
         <v>252</v>
@@ -9143,16 +9278,16 @@
         <v>21</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="L67" s="2"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>88</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C68" s="2">
         <v>33.9</v>
@@ -9179,16 +9314,16 @@
         <v>16</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L68" s="2"/>
     </row>
-    <row r="69" spans="1:16" ht="20" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:19" ht="20" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>72</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C69" s="2">
         <v>0.36399999999999999</v>
@@ -9215,19 +9350,23 @@
         <v>16</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="L69" s="2"/>
-      <c r="P69" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" ht="20" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+      <c r="L69" s="32"/>
+      <c r="M69" s="35"/>
+      <c r="N69" s="35"/>
+      <c r="O69" s="35"/>
+      <c r="P69" s="35"/>
+      <c r="Q69" s="35"/>
+      <c r="R69" s="35"/>
+      <c r="S69" s="35"/>
+    </row>
+    <row r="70" spans="1:19" ht="20" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>83</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C70" s="2">
         <v>0.151</v>
@@ -9254,19 +9393,23 @@
         <v>16</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="L70" s="2"/>
-      <c r="P70" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" ht="20" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+      <c r="L70" s="32"/>
+      <c r="M70" s="35"/>
+      <c r="N70" s="35"/>
+      <c r="O70" s="35"/>
+      <c r="P70" s="35"/>
+      <c r="Q70" s="35"/>
+      <c r="R70" s="35"/>
+      <c r="S70" s="35"/>
+    </row>
+    <row r="71" spans="1:19" ht="20" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>103</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C71" s="2">
         <v>0.41099999999999998</v>
@@ -9293,16 +9436,23 @@
         <v>16</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="L71" s="2"/>
-    </row>
-    <row r="72" spans="1:16" ht="20" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+      <c r="L71" s="32"/>
+      <c r="M71" s="35"/>
+      <c r="N71" s="35"/>
+      <c r="O71" s="35"/>
+      <c r="P71" s="35"/>
+      <c r="Q71" s="35"/>
+      <c r="R71" s="35"/>
+      <c r="S71" s="35"/>
+    </row>
+    <row r="72" spans="1:19" ht="20" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>182</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C72" s="2">
         <v>0.125</v>
@@ -9329,16 +9479,23 @@
         <v>16</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="L72" s="2"/>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+      <c r="L72" s="32"/>
+      <c r="M72" s="35"/>
+      <c r="N72" s="35"/>
+      <c r="O72" s="35"/>
+      <c r="P72" s="35"/>
+      <c r="Q72" s="35"/>
+      <c r="R72" s="35"/>
+      <c r="S72" s="35"/>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>191</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C73" s="2">
         <v>0.97399999999999998</v>
@@ -9365,16 +9522,23 @@
         <v>16</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="L73" s="2"/>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+        <v>334</v>
+      </c>
+      <c r="L73" s="32"/>
+      <c r="M73" s="35"/>
+      <c r="N73" s="35"/>
+      <c r="O73" s="35"/>
+      <c r="P73" s="35"/>
+      <c r="Q73" s="35"/>
+      <c r="R73" s="35"/>
+      <c r="S73" s="35"/>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>100</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C74" s="2">
         <v>0.375</v>
@@ -9401,19 +9565,23 @@
         <v>16</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="L74" s="2"/>
-      <c r="O74" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" ht="20" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+      <c r="L74" s="32"/>
+      <c r="M74" s="35"/>
+      <c r="N74" s="35"/>
+      <c r="O74" s="35"/>
+      <c r="P74" s="35"/>
+      <c r="Q74" s="35"/>
+      <c r="R74" s="35"/>
+      <c r="S74" s="35"/>
+    </row>
+    <row r="75" spans="1:19" ht="20" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>84</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C75" s="2">
         <v>0.52400000000000002</v>
@@ -9440,16 +9608,23 @@
         <v>16</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="L75" s="2"/>
-    </row>
-    <row r="76" spans="1:16" ht="20" x14ac:dyDescent="0.35">
+        <v>160</v>
+      </c>
+      <c r="L75" s="32"/>
+      <c r="M75" s="35"/>
+      <c r="N75" s="35"/>
+      <c r="O75" s="35"/>
+      <c r="P75" s="35"/>
+      <c r="Q75" s="35"/>
+      <c r="R75" s="35"/>
+      <c r="S75" s="35"/>
+    </row>
+    <row r="76" spans="1:19" ht="20" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>205</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C76" s="2">
         <v>3.5000000000000001E-3</v>
@@ -9476,16 +9651,23 @@
         <v>16</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="L76" s="2"/>
-    </row>
-    <row r="77" spans="1:16" ht="20" x14ac:dyDescent="0.35">
+        <v>359</v>
+      </c>
+      <c r="L76" s="32"/>
+      <c r="M76" s="35"/>
+      <c r="N76" s="35"/>
+      <c r="O76" s="35"/>
+      <c r="P76" s="35"/>
+      <c r="Q76" s="35"/>
+      <c r="R76" s="35"/>
+      <c r="S76" s="35"/>
+    </row>
+    <row r="77" spans="1:19" ht="20" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>211</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C77" s="2">
         <v>0.20200000000000001</v>
@@ -9512,16 +9694,23 @@
         <v>16</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="L77" s="2"/>
-    </row>
-    <row r="78" spans="1:16" ht="20" x14ac:dyDescent="0.35">
+        <v>370</v>
+      </c>
+      <c r="L77" s="32"/>
+      <c r="M77" s="35"/>
+      <c r="N77" s="35"/>
+      <c r="O77" s="35"/>
+      <c r="P77" s="35"/>
+      <c r="Q77" s="35"/>
+      <c r="R77" s="35"/>
+      <c r="S77" s="35"/>
+    </row>
+    <row r="78" spans="1:19" ht="20" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>80</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C78" s="2">
         <v>0.14000000000000001</v>
@@ -9548,16 +9737,23 @@
         <v>16</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="L78" s="2"/>
-    </row>
-    <row r="79" spans="1:16" ht="20" x14ac:dyDescent="0.35">
+        <v>155</v>
+      </c>
+      <c r="L78" s="32"/>
+      <c r="M78" s="35"/>
+      <c r="N78" s="35"/>
+      <c r="O78" s="35"/>
+      <c r="P78" s="35"/>
+      <c r="Q78" s="35"/>
+      <c r="R78" s="35"/>
+      <c r="S78" s="35"/>
+    </row>
+    <row r="79" spans="1:19" ht="20" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>81</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C79" s="2">
         <v>0.14000000000000001</v>
@@ -9584,16 +9780,23 @@
         <v>16</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="L79" s="2"/>
-    </row>
-    <row r="80" spans="1:16" ht="20" x14ac:dyDescent="0.35">
+        <v>155</v>
+      </c>
+      <c r="L79" s="32"/>
+      <c r="M79" s="35"/>
+      <c r="N79" s="35"/>
+      <c r="O79" s="35"/>
+      <c r="P79" s="35"/>
+      <c r="Q79" s="35"/>
+      <c r="R79" s="35"/>
+      <c r="S79" s="35"/>
+    </row>
+    <row r="80" spans="1:19" ht="20" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>82</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C80" s="2">
         <v>0.14000000000000001</v>
@@ -9620,16 +9823,23 @@
         <v>16</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="L80" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="L80" s="32"/>
+      <c r="M80" s="35"/>
+      <c r="N80" s="35"/>
+      <c r="O80" s="35"/>
+      <c r="P80" s="35"/>
+      <c r="Q80" s="35"/>
+      <c r="R80" s="35"/>
+      <c r="S80" s="35"/>
     </row>
     <row r="81" spans="1:19" ht="20" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>192</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C81" s="2">
         <v>504</v>
@@ -9656,16 +9866,23 @@
         <v>21</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="L81" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="L81" s="32"/>
+      <c r="M81" s="35"/>
+      <c r="N81" s="35"/>
+      <c r="O81" s="35"/>
+      <c r="P81" s="35"/>
+      <c r="Q81" s="35"/>
+      <c r="R81" s="35"/>
+      <c r="S81" s="35"/>
     </row>
     <row r="82" spans="1:19" ht="20" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>231</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C82" s="2">
         <v>256</v>
@@ -9692,16 +9909,23 @@
         <v>21</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="L82" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="L82" s="32"/>
+      <c r="M82" s="35"/>
+      <c r="N82" s="35"/>
+      <c r="O82" s="35"/>
+      <c r="P82" s="35"/>
+      <c r="Q82" s="35"/>
+      <c r="R82" s="35"/>
+      <c r="S82" s="35"/>
     </row>
     <row r="83" spans="1:19" ht="20" x14ac:dyDescent="0.35">
       <c r="A83" s="9">
         <v>287</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C83" s="9">
         <v>19.46</v>
@@ -9728,16 +9952,23 @@
         <v>16</v>
       </c>
       <c r="K83" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="L83" s="2"/>
+        <v>486</v>
+      </c>
+      <c r="L83" s="32"/>
+      <c r="M83" s="35"/>
+      <c r="N83" s="35"/>
+      <c r="O83" s="35"/>
+      <c r="P83" s="35"/>
+      <c r="Q83" s="35"/>
+      <c r="R83" s="35"/>
+      <c r="S83" s="35"/>
     </row>
     <row r="84" spans="1:19" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="4">
         <v>288</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C84" s="4">
         <v>8.25</v>
@@ -9764,16 +9995,23 @@
         <v>16</v>
       </c>
       <c r="K84" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="L84" s="2"/>
+        <v>486</v>
+      </c>
+      <c r="L84" s="32"/>
+      <c r="M84" s="35"/>
+      <c r="N84" s="35"/>
+      <c r="O84" s="35"/>
+      <c r="P84" s="35"/>
+      <c r="Q84" s="35"/>
+      <c r="R84" s="35"/>
+      <c r="S84" s="35"/>
     </row>
     <row r="85" spans="1:19" ht="20" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>289</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C85" s="2">
         <v>7.7</v>
@@ -9800,16 +10038,23 @@
         <v>16</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="L85" s="2"/>
+        <v>486</v>
+      </c>
+      <c r="L85" s="32"/>
+      <c r="M85" s="35"/>
+      <c r="N85" s="35"/>
+      <c r="O85" s="35"/>
+      <c r="P85" s="35"/>
+      <c r="Q85" s="35"/>
+      <c r="R85" s="35"/>
+      <c r="S85" s="35"/>
     </row>
     <row r="86" spans="1:19" ht="20" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>290</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C86" s="2">
         <v>8.64</v>
@@ -9836,16 +10081,23 @@
         <v>16</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="L86" s="2"/>
+        <v>486</v>
+      </c>
+      <c r="L86" s="32"/>
+      <c r="M86" s="35"/>
+      <c r="N86" s="35"/>
+      <c r="O86" s="35"/>
+      <c r="P86" s="35"/>
+      <c r="Q86" s="35"/>
+      <c r="R86" s="35"/>
+      <c r="S86" s="35"/>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>273</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C87" s="2">
         <v>2.27</v>
@@ -9872,7 +10124,7 @@
         <v>16</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="L87" s="2"/>
       <c r="M87">
@@ -9885,7 +10137,7 @@
         <v>8</v>
       </c>
       <c r="S87" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="88" spans="1:19" ht="20" x14ac:dyDescent="0.35">
@@ -9941,7 +10193,7 @@
         <v>119</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C89" s="2">
         <v>0.69</v>
@@ -9968,7 +10220,7 @@
         <v>16</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L89" s="2"/>
     </row>
@@ -9977,7 +10229,7 @@
         <v>172</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C90" s="9">
         <v>0.96</v>
@@ -10004,7 +10256,7 @@
         <v>16</v>
       </c>
       <c r="K90" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L90" s="9"/>
     </row>
@@ -10013,7 +10265,7 @@
         <v>173</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C91" s="2">
         <v>0.09</v>
@@ -10040,7 +10292,7 @@
         <v>16</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L91" s="2"/>
     </row>
@@ -10049,7 +10301,7 @@
         <v>174</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C92" s="2">
         <v>1.01</v>
@@ -10076,7 +10328,7 @@
         <v>16</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L92" s="2"/>
     </row>
@@ -10085,7 +10337,7 @@
         <v>175</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C93" s="2">
         <v>0.13</v>
@@ -10112,7 +10364,7 @@
         <v>16</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L93" s="2"/>
     </row>
@@ -10121,7 +10373,7 @@
         <v>176</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C94" s="2">
         <v>0.21</v>
@@ -10148,7 +10400,7 @@
         <v>16</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L94" s="2"/>
     </row>
@@ -10157,7 +10409,7 @@
         <v>237</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C95" s="2">
         <v>4.9299999999999997E-2</v>
@@ -10184,7 +10436,7 @@
         <v>16</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L95" s="2"/>
     </row>
@@ -10193,7 +10445,7 @@
         <v>154</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C96" s="2">
         <v>0.59</v>
@@ -10220,7 +10472,7 @@
         <v>16</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L96" s="2"/>
     </row>
@@ -10229,7 +10481,7 @@
         <v>233</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C97" s="2">
         <v>5.91E-2</v>
@@ -10256,7 +10508,7 @@
         <v>16</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L97" s="2"/>
     </row>
@@ -10265,7 +10517,7 @@
         <v>235</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C98" s="2">
         <v>5.11E-2</v>
@@ -10292,7 +10544,7 @@
         <v>16</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L98" s="2"/>
     </row>
@@ -10301,7 +10553,7 @@
         <v>234</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C99" s="2">
         <v>4.3499999999999997E-2</v>
@@ -10328,7 +10580,7 @@
         <v>16</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="L99" s="2"/>
     </row>
@@ -10337,7 +10589,7 @@
         <v>155</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C100" s="2">
         <v>0.71</v>
@@ -10364,7 +10616,7 @@
         <v>16</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L100" s="2"/>
     </row>
@@ -10410,7 +10662,7 @@
         <v>-123.85</v>
       </c>
       <c r="P101" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="Q101">
         <v>1959</v>
@@ -10461,7 +10713,7 @@
         <v>-123.88333299999999</v>
       </c>
       <c r="P102" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="Q102">
         <v>1950</v>
@@ -10475,7 +10727,7 @@
         <v>255</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C103" s="2">
         <v>3.54</v>
@@ -10502,7 +10754,7 @@
         <v>16</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L103" s="2"/>
     </row>
@@ -10511,7 +10763,7 @@
         <v>104</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C104" s="2">
         <v>0.18</v>
@@ -10538,7 +10790,7 @@
         <v>16</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L104" s="2"/>
     </row>
@@ -10547,7 +10799,7 @@
         <v>122</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C105" s="2">
         <v>1.2210000000000001</v>
@@ -10574,7 +10826,7 @@
         <v>16</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L105" s="2"/>
     </row>
@@ -10583,7 +10835,7 @@
         <v>112</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C106" s="2">
         <v>1.44</v>
@@ -10610,7 +10862,7 @@
         <v>16</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L106" s="2"/>
     </row>
@@ -10619,7 +10871,7 @@
         <v>111</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C107" s="2">
         <v>0.34</v>
@@ -10646,7 +10898,7 @@
         <v>16</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L107" s="2"/>
     </row>
@@ -10655,7 +10907,7 @@
         <v>164</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C108" s="2">
         <v>0.33</v>
@@ -10682,7 +10934,7 @@
         <v>16</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L108" s="2"/>
     </row>
@@ -10691,7 +10943,7 @@
         <v>304</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C109" s="2">
         <v>1</v>
@@ -10718,7 +10970,7 @@
         <v>16</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="L109" s="31"/>
       <c r="M109">
@@ -10731,10 +10983,10 @@
         <v>11</v>
       </c>
       <c r="P109" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="S109" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="110" spans="1:19" ht="20" x14ac:dyDescent="0.35">
@@ -10742,7 +10994,7 @@
         <v>305</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C110" s="2">
         <v>1</v>
@@ -10769,7 +11021,7 @@
         <v>16</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="L110" s="31"/>
       <c r="M110">
@@ -10782,10 +11034,10 @@
         <v>13</v>
       </c>
       <c r="P110" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="S110" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="111" spans="1:19" ht="20" x14ac:dyDescent="0.35">
@@ -10793,7 +11045,7 @@
         <v>303</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C111" s="2">
         <v>1</v>
@@ -10820,7 +11072,7 @@
         <v>16</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L111" s="31"/>
       <c r="M111">
@@ -10830,10 +11082,10 @@
         <v>-110.963855204659</v>
       </c>
       <c r="P111" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="S111" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="112" spans="1:19" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -10841,7 +11093,7 @@
         <v>276</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C112" s="4">
         <v>0.39</v>
@@ -10868,7 +11120,7 @@
         <v>16</v>
       </c>
       <c r="K112" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L112" s="31"/>
       <c r="M112">
@@ -10881,7 +11133,7 @@
         <v>10</v>
       </c>
       <c r="S112" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="113" spans="1:19" ht="20" x14ac:dyDescent="0.35">
@@ -10889,7 +11141,7 @@
         <v>221</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C113" s="2">
         <v>0.183</v>
@@ -10916,7 +11168,7 @@
         <v>16</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="L113" s="2"/>
     </row>
@@ -10925,7 +11177,7 @@
         <v>220</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C114" s="2">
         <v>1</v>
@@ -10952,7 +11204,7 @@
         <v>16</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="L114" s="2"/>
       <c r="M114">
@@ -10965,10 +11217,10 @@
         <v>1</v>
       </c>
       <c r="P114" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="S114" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="115" spans="1:19" ht="20" x14ac:dyDescent="0.35">
@@ -10976,7 +11228,7 @@
         <v>226</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C115" s="2">
         <v>0.05</v>
@@ -11003,7 +11255,7 @@
         <v>16</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="L115" s="2"/>
     </row>
@@ -11012,7 +11264,7 @@
         <v>260</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C116" s="2">
         <v>1</v>
@@ -11039,7 +11291,7 @@
         <v>16</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L116" s="2"/>
       <c r="M116">
@@ -11052,10 +11304,10 @@
         <v>1</v>
       </c>
       <c r="P116" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="S116" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.35">
@@ -11063,7 +11315,7 @@
         <v>75</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C117" s="2">
         <v>1.46</v>
@@ -11090,7 +11342,7 @@
         <v>16</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L117" s="2"/>
     </row>
@@ -11099,7 +11351,7 @@
         <v>277</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C118" s="2">
         <v>0.28000000000000003</v>
@@ -11126,7 +11378,7 @@
         <v>16</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L118" s="2"/>
       <c r="M118">
@@ -11139,7 +11391,7 @@
         <v>10</v>
       </c>
       <c r="S118" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="119" spans="1:19" ht="20" x14ac:dyDescent="0.35">
@@ -11147,7 +11399,7 @@
         <v>225</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C119" s="2">
         <v>0.05</v>
@@ -11174,7 +11426,7 @@
         <v>16</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L119" s="2"/>
     </row>
@@ -11183,7 +11435,7 @@
         <v>307</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C120" s="2">
         <v>0.43</v>
@@ -11210,7 +11462,7 @@
         <v>16</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="L120" s="2"/>
     </row>
@@ -11219,7 +11471,7 @@
         <v>308</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C121" s="2">
         <v>0.43</v>
@@ -11246,7 +11498,7 @@
         <v>16</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="L121" s="2"/>
     </row>
@@ -11255,7 +11507,7 @@
         <v>309</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C122" s="2">
         <v>0.43</v>
@@ -11282,7 +11534,7 @@
         <v>16</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="L122" s="2"/>
     </row>
@@ -11291,7 +11543,7 @@
         <v>310</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C123" s="2">
         <v>0.36</v>
@@ -11318,7 +11570,7 @@
         <v>16</v>
       </c>
       <c r="K123" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="L123" s="2"/>
       <c r="M123">
@@ -11333,7 +11585,7 @@
         <v>25</v>
       </c>
       <c r="S123" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="124" spans="1:19" ht="20" x14ac:dyDescent="0.35">
@@ -11341,7 +11593,7 @@
         <v>179</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C124" s="2">
         <v>0.16</v>
@@ -11368,7 +11620,7 @@
         <v>16</v>
       </c>
       <c r="K124" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L124" s="2"/>
     </row>
@@ -11377,7 +11629,7 @@
         <v>209</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C125" s="2">
         <v>0.34</v>
@@ -11404,7 +11656,7 @@
         <v>16</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L125" s="2"/>
     </row>
@@ -11413,7 +11665,7 @@
         <v>180</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C126" s="2">
         <v>0.35</v>
@@ -11440,7 +11692,7 @@
         <v>16</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L126" s="2"/>
     </row>
@@ -11449,7 +11701,7 @@
         <v>190</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C127" s="2">
         <v>0.86</v>
@@ -11476,7 +11728,7 @@
         <v>16</v>
       </c>
       <c r="K127" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L127" s="2"/>
     </row>
@@ -11485,7 +11737,7 @@
         <v>284</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C128" s="2">
         <v>0.54</v>
@@ -11512,7 +11764,7 @@
         <v>16</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L128" s="2"/>
     </row>
@@ -11521,7 +11773,7 @@
         <v>275</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C129" s="2">
         <v>0.19</v>
@@ -11548,7 +11800,7 @@
         <v>16</v>
       </c>
       <c r="K129" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="L129" s="2"/>
       <c r="M129">
@@ -11561,7 +11813,7 @@
         <v>10</v>
       </c>
       <c r="S129" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="130" spans="1:19" ht="20" x14ac:dyDescent="0.35">
@@ -11569,7 +11821,7 @@
         <v>91</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C130" s="2">
         <v>94</v>
@@ -11605,7 +11857,7 @@
         <v>217</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C131" s="2">
         <v>650</v>
@@ -11641,7 +11893,7 @@
         <v>218</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C132" s="2">
         <v>434</v>
@@ -11677,7 +11929,7 @@
         <v>245</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C133" s="2">
         <v>386</v>
@@ -11713,7 +11965,7 @@
         <v>246</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C134" s="2">
         <v>734</v>
@@ -11749,7 +12001,7 @@
         <v>110</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C135" s="2">
         <v>0.28000000000000003</v>
@@ -11776,7 +12028,7 @@
         <v>16</v>
       </c>
       <c r="K135" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L135" s="2"/>
     </row>
@@ -11785,7 +12037,7 @@
         <v>115</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C136" s="2">
         <v>0.2</v>
@@ -11812,7 +12064,7 @@
         <v>16</v>
       </c>
       <c r="K136" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L136" s="2"/>
     </row>
@@ -11821,7 +12073,7 @@
         <v>116</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C137" s="9">
         <v>0.28999999999999998</v>
@@ -11848,7 +12100,7 @@
         <v>16</v>
       </c>
       <c r="K137" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L137" s="9"/>
     </row>
@@ -11857,7 +12109,7 @@
         <v>107</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C138" s="2">
         <v>0.86</v>
@@ -11884,7 +12136,7 @@
         <v>16</v>
       </c>
       <c r="K138" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L138" s="2"/>
     </row>
@@ -11893,7 +12145,7 @@
         <v>96</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C139" s="2">
         <v>0.06</v>
@@ -11920,7 +12172,7 @@
         <v>16</v>
       </c>
       <c r="K139" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L139" s="2"/>
     </row>
@@ -11929,7 +12181,7 @@
         <v>263</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C140" s="4">
         <v>9.1999999999999993</v>
@@ -11956,7 +12208,7 @@
         <v>16</v>
       </c>
       <c r="K140" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="L140" s="2"/>
       <c r="M140">
@@ -11976,7 +12228,7 @@
         <v>261</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C141" s="2">
         <v>4.24</v>
@@ -12003,7 +12255,7 @@
         <v>16</v>
       </c>
       <c r="K141" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L141" s="2"/>
       <c r="M141">
@@ -12016,7 +12268,7 @@
         <v>21</v>
       </c>
       <c r="S141" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="142" spans="1:19" ht="20" x14ac:dyDescent="0.35">
@@ -12024,7 +12276,7 @@
         <v>143</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C142" s="2">
         <v>0.24</v>
@@ -12051,7 +12303,7 @@
         <v>16</v>
       </c>
       <c r="K142" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L142" s="2"/>
     </row>
@@ -12060,7 +12312,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C143" s="2">
         <v>0.22</v>
@@ -12087,7 +12339,7 @@
         <v>16</v>
       </c>
       <c r="K143" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L143" s="2"/>
     </row>
@@ -12096,7 +12348,7 @@
         <v>186</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C144" s="2">
         <v>0.56000000000000005</v>
@@ -12120,10 +12372,10 @@
         <v>15</v>
       </c>
       <c r="J144" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="K144" s="2" t="s">
         <v>326</v>
-      </c>
-      <c r="K144" s="2" t="s">
-        <v>327</v>
       </c>
       <c r="L144" s="2"/>
     </row>
@@ -12132,7 +12384,7 @@
         <v>297</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C145" s="2">
         <v>0.68200000000000005</v>
@@ -12159,7 +12411,7 @@
         <v>16</v>
       </c>
       <c r="K145" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L145" s="2"/>
     </row>
@@ -12168,7 +12420,7 @@
         <v>300</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C146" s="2">
         <v>0.85599999999999998</v>
@@ -12195,7 +12447,7 @@
         <v>16</v>
       </c>
       <c r="K146" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L146" s="2"/>
     </row>
@@ -12204,7 +12456,7 @@
         <v>250</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C147" s="2">
         <v>1.4</v>
@@ -12231,7 +12483,7 @@
         <v>16</v>
       </c>
       <c r="K147" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L147" s="2"/>
     </row>
@@ -12240,7 +12492,7 @@
         <v>243</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C148" s="2">
         <v>0.05</v>
@@ -12267,7 +12519,7 @@
         <v>16</v>
       </c>
       <c r="K148" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L148" s="2"/>
     </row>
@@ -12276,7 +12528,7 @@
         <v>236</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C149" s="2">
         <v>4.1500000000000002E-2</v>
@@ -12303,7 +12555,7 @@
         <v>16</v>
       </c>
       <c r="K149" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L149" s="2"/>
     </row>
@@ -12312,7 +12564,7 @@
         <v>198</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C150" s="2">
         <v>579</v>
@@ -12339,7 +12591,7 @@
         <v>21</v>
       </c>
       <c r="K150" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L150" s="2"/>
     </row>
@@ -12348,7 +12600,7 @@
         <v>196</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C151" s="2">
         <v>0.43</v>
@@ -12375,7 +12627,7 @@
         <v>16</v>
       </c>
       <c r="K151" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L151" s="2"/>
     </row>
@@ -12384,7 +12636,7 @@
         <v>202</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C152" s="2">
         <v>8.2100000000000009</v>
@@ -12408,10 +12660,10 @@
         <v>15</v>
       </c>
       <c r="J152" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="K152" s="2" t="s">
         <v>354</v>
-      </c>
-      <c r="K152" s="2" t="s">
-        <v>355</v>
       </c>
       <c r="L152" s="2"/>
       <c r="M152">
@@ -12424,7 +12676,7 @@
         <v>6</v>
       </c>
       <c r="S152" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="153" spans="1:19" ht="20" x14ac:dyDescent="0.35">
@@ -12432,7 +12684,7 @@
         <v>229</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C153" s="2">
         <v>8.2899999999999991</v>
@@ -12456,10 +12708,10 @@
         <v>15</v>
       </c>
       <c r="J153" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="K153" s="2" t="s">
         <v>354</v>
-      </c>
-      <c r="K153" s="2" t="s">
-        <v>355</v>
       </c>
       <c r="L153" s="2"/>
       <c r="M153">
@@ -12472,7 +12724,7 @@
         <v>6</v>
       </c>
       <c r="S153" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="154" spans="1:19" ht="20" x14ac:dyDescent="0.35">
@@ -12480,7 +12732,7 @@
         <v>262</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C154" s="2">
         <v>3.59</v>
@@ -12504,10 +12756,10 @@
         <v>15</v>
       </c>
       <c r="J154" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="K154" s="2" t="s">
         <v>354</v>
-      </c>
-      <c r="K154" s="2" t="s">
-        <v>355</v>
       </c>
       <c r="L154" s="2"/>
       <c r="M154">
@@ -12520,7 +12772,7 @@
         <v>6</v>
       </c>
       <c r="S154" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="155" spans="1:19" ht="20" x14ac:dyDescent="0.35">
@@ -12528,7 +12780,7 @@
         <v>266</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C155" s="2">
         <v>10.59</v>
@@ -12552,10 +12804,10 @@
         <v>15</v>
       </c>
       <c r="J155" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="K155" s="2" t="s">
         <v>354</v>
-      </c>
-      <c r="K155" s="2" t="s">
-        <v>355</v>
       </c>
       <c r="L155" s="2"/>
       <c r="M155">
@@ -12568,7 +12820,7 @@
         <v>6</v>
       </c>
       <c r="S155" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="156" spans="1:19" ht="20" x14ac:dyDescent="0.35">
@@ -12576,7 +12828,7 @@
         <v>120</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C156" s="2">
         <v>0.68</v>
@@ -12603,7 +12855,7 @@
         <v>16</v>
       </c>
       <c r="K156" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L156" s="2"/>
     </row>
@@ -12612,7 +12864,7 @@
         <v>121</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C157" s="2">
         <v>0.5</v>
@@ -12639,7 +12891,7 @@
         <v>16</v>
       </c>
       <c r="K157" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L157" s="2"/>
     </row>
@@ -12648,7 +12900,7 @@
         <v>127</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C158" s="2">
         <v>3.03</v>
@@ -12675,7 +12927,7 @@
         <v>16</v>
       </c>
       <c r="K158" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L158" s="2"/>
     </row>
@@ -12684,7 +12936,7 @@
         <v>301</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C159" s="2">
         <v>0.6</v>
@@ -12711,7 +12963,7 @@
         <v>16</v>
       </c>
       <c r="K159" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="L159" s="2"/>
     </row>
@@ -12720,7 +12972,7 @@
         <v>183</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C160" s="2">
         <v>296</v>
@@ -12747,7 +12999,7 @@
         <v>26</v>
       </c>
       <c r="K160" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L160" s="2"/>
     </row>
@@ -12756,7 +13008,7 @@
         <v>185</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C161" s="2">
         <v>0.03</v>
@@ -12783,7 +13035,7 @@
         <v>16</v>
       </c>
       <c r="K161" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L161" s="2"/>
     </row>
@@ -12792,7 +13044,7 @@
         <v>93</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C162" s="2">
         <v>1.9</v>
@@ -12819,7 +13071,7 @@
         <v>16</v>
       </c>
       <c r="K162" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L162" s="2"/>
     </row>
@@ -12828,7 +13080,7 @@
         <v>193</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C163" s="2">
         <v>12</v>
@@ -12855,7 +13107,7 @@
         <v>21</v>
       </c>
       <c r="K163" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L163" s="2"/>
     </row>
@@ -12864,7 +13116,7 @@
         <v>78</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C164" s="2">
         <v>0.17</v>
@@ -12891,7 +13143,7 @@
         <v>16</v>
       </c>
       <c r="K164" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L164" s="2"/>
     </row>
@@ -12900,7 +13152,7 @@
         <v>79</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C165" s="2">
         <v>0.77</v>
@@ -12927,7 +13179,7 @@
         <v>16</v>
       </c>
       <c r="K165" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L165" s="2"/>
     </row>
@@ -12936,7 +13188,7 @@
         <v>213</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C166" s="2">
         <v>0.63</v>
@@ -12963,7 +13215,7 @@
         <v>16</v>
       </c>
       <c r="K166" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L166" s="2"/>
     </row>
@@ -12972,7 +13224,7 @@
         <v>214</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C167" s="2">
         <v>0.04</v>
@@ -12999,7 +13251,7 @@
         <v>16</v>
       </c>
       <c r="K167" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L167" s="2"/>
     </row>
@@ -13008,7 +13260,7 @@
         <v>215</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C168" s="4">
         <v>0.73</v>
@@ -13035,7 +13287,7 @@
         <v>16</v>
       </c>
       <c r="K168" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L168" s="2"/>
     </row>
@@ -13044,7 +13296,7 @@
         <v>219</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C169" s="2">
         <v>0.30499999999999999</v>
@@ -13071,7 +13323,7 @@
         <v>16</v>
       </c>
       <c r="K169" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L169" s="2"/>
     </row>
@@ -13080,7 +13332,7 @@
         <v>139</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C170" s="2">
         <v>0.39</v>
@@ -13107,7 +13359,7 @@
         <v>16</v>
       </c>
       <c r="K170" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L170" s="2"/>
     </row>
@@ -13116,7 +13368,7 @@
         <v>137</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C171" s="2">
         <v>0.34</v>
@@ -13143,7 +13395,7 @@
         <v>16</v>
       </c>
       <c r="K171" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L171" s="2"/>
     </row>
@@ -13152,7 +13404,7 @@
         <v>144</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C172" s="9">
         <v>0.3</v>
@@ -13179,7 +13431,7 @@
         <v>16</v>
       </c>
       <c r="K172" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L172" s="9"/>
     </row>
@@ -13188,7 +13440,7 @@
         <v>134</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C173" s="2">
         <v>0.15</v>
@@ -13215,7 +13467,7 @@
         <v>16</v>
       </c>
       <c r="K173" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L173" s="2"/>
     </row>
@@ -13224,7 +13476,7 @@
         <v>207</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C174" s="2">
         <v>4.1399999999999999E-2</v>
@@ -13251,7 +13503,7 @@
         <v>16</v>
       </c>
       <c r="K174" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="L174" s="2"/>
     </row>
@@ -13260,7 +13512,7 @@
         <v>208</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C175" s="2">
         <v>8.2600000000000007E-2</v>
@@ -13287,7 +13539,7 @@
         <v>16</v>
       </c>
       <c r="K175" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="L175" s="2"/>
     </row>
@@ -13296,7 +13548,7 @@
         <v>187</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C176" s="2">
         <v>7.02</v>
@@ -13323,7 +13575,7 @@
         <v>16</v>
       </c>
       <c r="K176" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L176" s="2"/>
     </row>
@@ -13332,7 +13584,7 @@
         <v>133</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C177" s="2">
         <v>0.3</v>
@@ -13359,7 +13611,7 @@
         <v>16</v>
       </c>
       <c r="K177" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L177" s="2"/>
     </row>
@@ -13368,7 +13620,7 @@
         <v>135</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C178" s="2">
         <v>0.34</v>
@@ -13395,7 +13647,7 @@
         <v>16</v>
       </c>
       <c r="K178" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L178" s="2"/>
     </row>
@@ -13404,7 +13656,7 @@
         <v>136</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C179" s="2">
         <v>0.34</v>
@@ -13431,7 +13683,7 @@
         <v>16</v>
       </c>
       <c r="K179" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L179" s="2"/>
     </row>
@@ -13440,7 +13692,7 @@
         <v>138</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C180" s="2">
         <v>0.34</v>
@@ -13467,7 +13719,7 @@
         <v>16</v>
       </c>
       <c r="K180" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L180" s="2"/>
     </row>
@@ -13476,7 +13728,7 @@
         <v>140</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C181" s="2">
         <v>0.36</v>
@@ -13503,7 +13755,7 @@
         <v>16</v>
       </c>
       <c r="K181" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L181" s="2"/>
     </row>
@@ -13512,7 +13764,7 @@
         <v>141</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C182" s="2">
         <v>0.36</v>
@@ -13539,7 +13791,7 @@
         <v>16</v>
       </c>
       <c r="K182" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L182" s="2"/>
     </row>
@@ -13548,7 +13800,7 @@
         <v>145</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C183" s="2">
         <v>0.15</v>
@@ -13575,7 +13827,7 @@
         <v>16</v>
       </c>
       <c r="K183" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L183" s="2"/>
     </row>
@@ -13584,7 +13836,7 @@
         <v>146</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C184" s="2">
         <v>0.34</v>
@@ -13611,7 +13863,7 @@
         <v>16</v>
       </c>
       <c r="K184" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L184" s="2"/>
     </row>
@@ -13620,7 +13872,7 @@
         <v>147</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C185" s="2">
         <v>0.36</v>
@@ -13647,7 +13899,7 @@
         <v>16</v>
       </c>
       <c r="K185" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L185" s="2"/>
     </row>
@@ -13656,7 +13908,7 @@
         <v>148</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C186" s="2">
         <v>0.22</v>
@@ -13683,7 +13935,7 @@
         <v>16</v>
       </c>
       <c r="K186" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L186" s="2"/>
     </row>
@@ -13692,7 +13944,7 @@
         <v>149</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C187" s="2">
         <v>0.24</v>
@@ -13719,7 +13971,7 @@
         <v>16</v>
       </c>
       <c r="K187" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L187" s="2"/>
     </row>
@@ -13728,7 +13980,7 @@
         <v>306</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C188" s="2">
         <v>1</v>
@@ -13755,7 +14007,7 @@
         <v>16</v>
       </c>
       <c r="K188" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="L188" s="2"/>
       <c r="M188">
@@ -13768,10 +14020,10 @@
         <v>11</v>
       </c>
       <c r="P188" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="S188" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="189" spans="1:19" ht="30" x14ac:dyDescent="0.35">
@@ -13779,7 +14031,7 @@
         <v>92</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C189" s="2">
         <v>3.64</v>
@@ -13806,7 +14058,7 @@
         <v>16</v>
       </c>
       <c r="K189" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L189" s="2"/>
     </row>
@@ -13815,7 +14067,7 @@
         <v>101</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C190" s="2">
         <v>1.5</v>
@@ -13842,7 +14094,7 @@
         <v>16</v>
       </c>
       <c r="K190" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L190" s="2"/>
     </row>
@@ -13851,7 +14103,7 @@
         <v>166</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C191" s="2">
         <v>3.67</v>
@@ -13878,7 +14130,7 @@
         <v>16</v>
       </c>
       <c r="K191" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L191" s="2"/>
     </row>
@@ -13887,7 +14139,7 @@
         <v>177</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C192" s="2">
         <v>3.08</v>
@@ -13914,16 +14166,16 @@
         <v>16</v>
       </c>
       <c r="K192" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L192" s="2"/>
     </row>
-    <row r="193" spans="1:19" ht="30" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:20" ht="30" x14ac:dyDescent="0.35">
       <c r="A193" s="2">
         <v>258</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C193" s="2">
         <v>8.6999999999999993</v>
@@ -13950,7 +14202,7 @@
         <v>16</v>
       </c>
       <c r="K193" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L193" s="2"/>
       <c r="M193">
@@ -13963,15 +14215,15 @@
         <v>17</v>
       </c>
       <c r="S193" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="194" spans="1:19" ht="30" x14ac:dyDescent="0.35">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="194" spans="1:20" ht="30" x14ac:dyDescent="0.35">
       <c r="A194" s="2">
         <v>272</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C194" s="2">
         <v>0.89</v>
@@ -13998,7 +14250,7 @@
         <v>16</v>
       </c>
       <c r="K194" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L194" s="2"/>
       <c r="M194">
@@ -14011,18 +14263,18 @@
         <v>17</v>
       </c>
       <c r="P194" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="S194" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="195" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="195" spans="1:20" ht="20" x14ac:dyDescent="0.35">
       <c r="A195" s="2">
         <v>86</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C195" s="2">
         <v>0.03</v>
@@ -14049,16 +14301,16 @@
         <v>16</v>
       </c>
       <c r="K195" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L195" s="2"/>
     </row>
-    <row r="196" spans="1:19" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:20" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A196" s="4">
         <v>87</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C196" s="4">
         <v>0.03</v>
@@ -14085,16 +14337,16 @@
         <v>16</v>
       </c>
       <c r="K196" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L196" s="2"/>
     </row>
-    <row r="197" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:20" ht="20" x14ac:dyDescent="0.35">
       <c r="A197" s="2">
         <v>206</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C197" s="2">
         <v>0.1</v>
@@ -14121,16 +14373,16 @@
         <v>21</v>
       </c>
       <c r="K197" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L197" s="2"/>
     </row>
-    <row r="198" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:20" ht="20" x14ac:dyDescent="0.35">
       <c r="A198" s="2">
         <v>232</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C198" s="2">
         <v>5.74E-2</v>
@@ -14157,16 +14409,16 @@
         <v>16</v>
       </c>
       <c r="K198" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L198" s="2"/>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A199" s="2">
         <v>238</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C199" s="2">
         <v>4.0800000000000003E-2</v>
@@ -14193,11 +14445,11 @@
         <v>16</v>
       </c>
       <c r="K199" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="L199" s="2"/>
     </row>
-    <row r="200" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:20" ht="20" x14ac:dyDescent="0.35">
       <c r="A200" s="2">
         <v>67</v>
       </c>
@@ -14232,27 +14484,27 @@
         <v>133</v>
       </c>
       <c r="L200" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M200" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="N200" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="O200" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="P200" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="201" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="201" spans="1:20" ht="20" x14ac:dyDescent="0.35">
       <c r="A201" s="2">
         <v>167</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C201" s="2">
         <v>0.8</v>
@@ -14279,7 +14531,7 @@
         <v>16</v>
       </c>
       <c r="K201" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L201">
         <v>-32.630000000000003</v>
@@ -14294,12 +14546,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:20" ht="20" x14ac:dyDescent="0.35">
       <c r="A202" s="9">
         <v>228</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C202" s="9">
         <v>0.318</v>
@@ -14326,16 +14578,16 @@
         <v>16</v>
       </c>
       <c r="K202" s="9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L202" s="9"/>
     </row>
-    <row r="203" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:20" ht="20" x14ac:dyDescent="0.35">
       <c r="A203" s="2">
         <v>95</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C203" s="2">
         <v>1.81</v>
@@ -14362,7 +14614,7 @@
         <v>16</v>
       </c>
       <c r="K203" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M203">
         <f>42+31/60+52/3600</f>
@@ -14376,15 +14628,15 @@
         <v>26</v>
       </c>
       <c r="P203" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.35">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="204" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A204" s="2">
         <v>269</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C204" s="2">
         <v>1.8</v>
@@ -14411,7 +14663,7 @@
         <v>16</v>
       </c>
       <c r="K204" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M204">
         <f>-33-57/60</f>
@@ -14425,15 +14677,15 @@
         <v>1</v>
       </c>
       <c r="P204" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.35">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="205" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A205" s="2">
         <v>194</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C205" s="2">
         <v>0.65</v>
@@ -14460,16 +14712,24 @@
         <v>16</v>
       </c>
       <c r="K205" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="L205" s="2"/>
-    </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.35">
+        <v>340</v>
+      </c>
+      <c r="L205" s="32"/>
+      <c r="M205" s="35"/>
+      <c r="N205" s="35"/>
+      <c r="O205" s="35"/>
+      <c r="P205" s="35"/>
+      <c r="Q205" s="35"/>
+      <c r="R205" s="35"/>
+      <c r="S205" s="35"/>
+      <c r="T205" s="35"/>
+    </row>
+    <row r="206" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A206" s="2">
         <v>85</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C206" s="2">
         <v>2.0089999999999999</v>
@@ -14496,7 +14756,7 @@
         <v>16</v>
       </c>
       <c r="K206" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L206" s="2"/>
       <c r="M206">
@@ -14511,15 +14771,15 @@
         <v>1</v>
       </c>
       <c r="P206" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.35">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="207" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A207" s="9">
         <v>286</v>
       </c>
       <c r="B207" s="9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C207" s="9">
         <v>1.32</v>
@@ -14546,16 +14806,24 @@
         <v>16</v>
       </c>
       <c r="K207" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="L207" s="2"/>
-    </row>
-    <row r="208" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+        <v>162</v>
+      </c>
+      <c r="L207" s="32"/>
+      <c r="M207" s="35"/>
+      <c r="N207" s="35"/>
+      <c r="O207" s="35"/>
+      <c r="P207" s="35"/>
+      <c r="Q207" s="35"/>
+      <c r="R207" s="35"/>
+      <c r="S207" s="35"/>
+      <c r="T207" s="35"/>
+    </row>
+    <row r="208" spans="1:20" ht="20" x14ac:dyDescent="0.35">
       <c r="A208" s="2">
         <v>299</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C208" s="2">
         <v>0.77500000000000002</v>
@@ -14582,16 +14850,24 @@
         <v>16</v>
       </c>
       <c r="K208" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="L208" s="2"/>
-    </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+      <c r="L208" s="32"/>
+      <c r="M208" s="35"/>
+      <c r="N208" s="35"/>
+      <c r="O208" s="35"/>
+      <c r="P208" s="35"/>
+      <c r="Q208" s="35"/>
+      <c r="R208" s="35"/>
+      <c r="S208" s="35"/>
+      <c r="T208" s="35"/>
+    </row>
+    <row r="209" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A209" s="2">
         <v>227</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C209" s="2">
         <v>0.71</v>
@@ -14618,16 +14894,24 @@
         <v>16</v>
       </c>
       <c r="K209" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="L209" s="2"/>
-    </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.35">
+        <v>396</v>
+      </c>
+      <c r="L209" s="32"/>
+      <c r="M209" s="35"/>
+      <c r="N209" s="35"/>
+      <c r="O209" s="35"/>
+      <c r="P209" s="35"/>
+      <c r="Q209" s="35"/>
+      <c r="R209" s="35"/>
+      <c r="S209" s="35"/>
+      <c r="T209" s="35"/>
+    </row>
+    <row r="210" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A210" s="2">
         <v>296</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C210" s="2">
         <v>1</v>
@@ -14654,16 +14938,24 @@
         <v>16</v>
       </c>
       <c r="K210" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="L210" s="2"/>
-    </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.35">
+        <v>500</v>
+      </c>
+      <c r="L210" s="32"/>
+      <c r="M210" s="35"/>
+      <c r="N210" s="35"/>
+      <c r="O210" s="35"/>
+      <c r="P210" s="35"/>
+      <c r="Q210" s="35"/>
+      <c r="R210" s="35"/>
+      <c r="S210" s="35"/>
+      <c r="T210" s="35"/>
+    </row>
+    <row r="211" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A211" s="2">
         <v>302</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C211" s="2">
         <v>1</v>
@@ -14690,7 +14982,7 @@
         <v>16</v>
       </c>
       <c r="K211" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="L211" s="2"/>
       <c r="M211">
@@ -14703,18 +14995,18 @@
         <v>5</v>
       </c>
       <c r="P211" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="S211" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.35">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="212" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A212" s="2">
         <v>125</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C212" s="2">
         <v>10</v>
@@ -14741,16 +15033,24 @@
         <v>26</v>
       </c>
       <c r="K212" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="L212" s="2"/>
-    </row>
-    <row r="213" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+        <v>233</v>
+      </c>
+      <c r="L212" s="32"/>
+      <c r="M212" s="35"/>
+      <c r="N212" s="35"/>
+      <c r="O212" s="35"/>
+      <c r="P212" s="35"/>
+      <c r="Q212" s="35"/>
+      <c r="R212" s="35"/>
+      <c r="S212" s="35"/>
+      <c r="T212" s="35"/>
+    </row>
+    <row r="213" spans="1:20" ht="20" x14ac:dyDescent="0.35">
       <c r="A213" s="2">
         <v>118</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C213" s="2">
         <v>0.59</v>
@@ -14777,16 +15077,24 @@
         <v>16</v>
       </c>
       <c r="K213" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="L213" s="2"/>
-    </row>
-    <row r="214" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+      <c r="L213" s="32"/>
+      <c r="M213" s="35"/>
+      <c r="N213" s="35"/>
+      <c r="O213" s="35"/>
+      <c r="P213" s="35"/>
+      <c r="Q213" s="35"/>
+      <c r="R213" s="35"/>
+      <c r="S213" s="35"/>
+      <c r="T213" s="35"/>
+    </row>
+    <row r="214" spans="1:20" ht="20" x14ac:dyDescent="0.35">
       <c r="A214" s="2">
         <v>113</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C214" s="2">
         <v>0.09</v>
@@ -14813,16 +15121,24 @@
         <v>16</v>
       </c>
       <c r="K214" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="L214" s="2"/>
-    </row>
-    <row r="215" spans="1:19" ht="40" x14ac:dyDescent="0.35">
+        <v>213</v>
+      </c>
+      <c r="L214" s="32"/>
+      <c r="M214" s="35"/>
+      <c r="N214" s="35"/>
+      <c r="O214" s="35"/>
+      <c r="P214" s="35"/>
+      <c r="Q214" s="35"/>
+      <c r="R214" s="35"/>
+      <c r="S214" s="35"/>
+      <c r="T214" s="35"/>
+    </row>
+    <row r="215" spans="1:20" ht="40" x14ac:dyDescent="0.35">
       <c r="A215" s="2">
         <v>114</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C215" s="2">
         <v>0.44</v>
@@ -14849,16 +15165,24 @@
         <v>16</v>
       </c>
       <c r="K215" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="L215" s="2"/>
-    </row>
-    <row r="216" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+        <v>215</v>
+      </c>
+      <c r="L215" s="32"/>
+      <c r="M215" s="35"/>
+      <c r="N215" s="35"/>
+      <c r="O215" s="35"/>
+      <c r="P215" s="35"/>
+      <c r="Q215" s="35"/>
+      <c r="R215" s="35"/>
+      <c r="S215" s="35"/>
+      <c r="T215" s="35"/>
+    </row>
+    <row r="216" spans="1:20" ht="20" x14ac:dyDescent="0.35">
       <c r="A216" s="2">
         <v>109</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C216" s="2">
         <v>0.14000000000000001</v>
@@ -14885,16 +15209,24 @@
         <v>16</v>
       </c>
       <c r="K216" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="L216" s="2"/>
-    </row>
-    <row r="217" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+        <v>205</v>
+      </c>
+      <c r="L216" s="32"/>
+      <c r="M216" s="35"/>
+      <c r="N216" s="35"/>
+      <c r="O216" s="35"/>
+      <c r="P216" s="35"/>
+      <c r="Q216" s="35"/>
+      <c r="R216" s="35"/>
+      <c r="S216" s="35"/>
+      <c r="T216" s="35"/>
+    </row>
+    <row r="217" spans="1:20" ht="20" x14ac:dyDescent="0.35">
       <c r="A217" s="2">
         <v>106</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C217" s="2">
         <v>0.16</v>
@@ -14921,16 +15253,24 @@
         <v>16</v>
       </c>
       <c r="K217" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="L217" s="2"/>
-    </row>
-    <row r="218" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+        <v>199</v>
+      </c>
+      <c r="L217" s="32"/>
+      <c r="M217" s="35"/>
+      <c r="N217" s="35"/>
+      <c r="O217" s="35"/>
+      <c r="P217" s="35"/>
+      <c r="Q217" s="35"/>
+      <c r="R217" s="35"/>
+      <c r="S217" s="35"/>
+      <c r="T217" s="35"/>
+    </row>
+    <row r="218" spans="1:20" ht="20" x14ac:dyDescent="0.35">
       <c r="A218" s="2">
         <v>108</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C218" s="2">
         <v>0.16</v>
@@ -14957,16 +15297,24 @@
         <v>16</v>
       </c>
       <c r="K218" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="L218" s="2"/>
-    </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.35">
+        <v>203</v>
+      </c>
+      <c r="L218" s="32"/>
+      <c r="M218" s="35"/>
+      <c r="N218" s="35"/>
+      <c r="O218" s="35"/>
+      <c r="P218" s="35"/>
+      <c r="Q218" s="35"/>
+      <c r="R218" s="35"/>
+      <c r="S218" s="35"/>
+      <c r="T218" s="35"/>
+    </row>
+    <row r="219" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A219" s="2">
         <v>242</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C219" s="2">
         <v>0.35</v>
@@ -14993,16 +15341,24 @@
         <v>16</v>
       </c>
       <c r="K219" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="L219" s="2"/>
-    </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.35">
+        <v>421</v>
+      </c>
+      <c r="L219" s="32"/>
+      <c r="M219" s="35"/>
+      <c r="N219" s="35"/>
+      <c r="O219" s="35"/>
+      <c r="P219" s="35"/>
+      <c r="Q219" s="35"/>
+      <c r="R219" s="35"/>
+      <c r="S219" s="35"/>
+      <c r="T219" s="35"/>
+    </row>
+    <row r="220" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A220" s="2">
         <v>294</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C220" s="2">
         <v>6.94</v>
@@ -15029,16 +15385,24 @@
         <v>16</v>
       </c>
       <c r="K220" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="L220" s="2"/>
-    </row>
-    <row r="221" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+        <v>497</v>
+      </c>
+      <c r="L220" s="32"/>
+      <c r="M220" s="35"/>
+      <c r="N220" s="35"/>
+      <c r="O220" s="35"/>
+      <c r="P220" s="35"/>
+      <c r="Q220" s="35"/>
+      <c r="R220" s="35"/>
+      <c r="S220" s="35"/>
+      <c r="T220" s="35"/>
+    </row>
+    <row r="221" spans="1:20" ht="20" x14ac:dyDescent="0.35">
       <c r="A221" s="2">
         <v>223</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C221" s="2">
         <v>0.41</v>
@@ -15065,7 +15429,7 @@
         <v>16</v>
       </c>
       <c r="K221" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L221" s="2"/>
       <c r="M221">
@@ -15078,15 +15442,15 @@
         <v>3</v>
       </c>
       <c r="P221" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="222" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="222" spans="1:20" ht="20" x14ac:dyDescent="0.35">
       <c r="A222" s="2">
         <v>126</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C222" s="2">
         <v>2.7</v>
@@ -15113,7 +15477,7 @@
         <v>16</v>
       </c>
       <c r="K222" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L222" s="2"/>
       <c r="M222">
@@ -15126,12 +15490,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="223" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:20" ht="20" x14ac:dyDescent="0.35">
       <c r="A223" s="2">
         <v>222</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C223" s="2">
         <v>0.41</v>
@@ -15158,7 +15522,7 @@
         <v>16</v>
       </c>
       <c r="K223" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L223" s="2"/>
       <c r="M223">
@@ -15171,15 +15535,15 @@
         <v>6</v>
       </c>
       <c r="P223" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="224" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="224" spans="1:20" ht="20" x14ac:dyDescent="0.35">
       <c r="A224" s="2">
         <v>151</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C224" s="2">
         <v>2.89</v>
@@ -15206,7 +15570,7 @@
         <v>16</v>
       </c>
       <c r="K224" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L224" s="2"/>
       <c r="M224">
@@ -15219,15 +15583,15 @@
         <v>30</v>
       </c>
       <c r="P224" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="225" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="225" spans="1:20" ht="20" x14ac:dyDescent="0.35">
       <c r="A225" s="2">
         <v>152</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C225" s="2">
         <v>2.89</v>
@@ -15254,7 +15618,7 @@
         <v>16</v>
       </c>
       <c r="K225" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L225" s="2"/>
       <c r="M225">
@@ -15267,15 +15631,15 @@
         <v>30</v>
       </c>
       <c r="P225" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="226" spans="1:19" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="226" spans="1:20" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A226" s="4">
         <v>184</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C226" s="4">
         <v>2</v>
@@ -15302,16 +15666,24 @@
         <v>16</v>
       </c>
       <c r="K226" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="L226" s="2"/>
-    </row>
-    <row r="227" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+        <v>321</v>
+      </c>
+      <c r="L226" s="32"/>
+      <c r="M226" s="35"/>
+      <c r="N226" s="35"/>
+      <c r="O226" s="35"/>
+      <c r="P226" s="35"/>
+      <c r="Q226" s="35"/>
+      <c r="R226" s="35"/>
+      <c r="S226" s="35"/>
+      <c r="T226" s="35"/>
+    </row>
+    <row r="227" spans="1:20" ht="20" x14ac:dyDescent="0.35">
       <c r="A227" s="6">
         <v>212</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C227" s="6">
         <v>0.26</v>
@@ -15338,16 +15710,24 @@
         <v>16</v>
       </c>
       <c r="K227" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="L227" s="2"/>
-    </row>
-    <row r="228" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+        <v>372</v>
+      </c>
+      <c r="L227" s="32"/>
+      <c r="M227" s="35"/>
+      <c r="N227" s="35"/>
+      <c r="O227" s="35"/>
+      <c r="P227" s="35"/>
+      <c r="Q227" s="35"/>
+      <c r="R227" s="35"/>
+      <c r="S227" s="35"/>
+      <c r="T227" s="35"/>
+    </row>
+    <row r="228" spans="1:20" ht="20" x14ac:dyDescent="0.35">
       <c r="A228" s="2">
         <v>291</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C228" s="2">
         <v>0.81</v>
@@ -15374,16 +15754,24 @@
         <v>16</v>
       </c>
       <c r="K228" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="L228" s="2"/>
-    </row>
-    <row r="229" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+        <v>491</v>
+      </c>
+      <c r="L228" s="32"/>
+      <c r="M228" s="35"/>
+      <c r="N228" s="35"/>
+      <c r="O228" s="35"/>
+      <c r="P228" s="35"/>
+      <c r="Q228" s="35"/>
+      <c r="R228" s="35"/>
+      <c r="S228" s="35"/>
+      <c r="T228" s="35"/>
+    </row>
+    <row r="229" spans="1:20" ht="20" x14ac:dyDescent="0.35">
       <c r="A229" s="2">
         <v>201</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C229" s="2">
         <v>12</v>
@@ -15410,16 +15798,24 @@
         <v>26</v>
       </c>
       <c r="K229" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="L229" s="2"/>
-    </row>
-    <row r="230" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+        <v>351</v>
+      </c>
+      <c r="L229" s="32"/>
+      <c r="M229" s="35"/>
+      <c r="N229" s="35"/>
+      <c r="O229" s="35"/>
+      <c r="P229" s="35"/>
+      <c r="Q229" s="35"/>
+      <c r="R229" s="35"/>
+      <c r="S229" s="35"/>
+      <c r="T229" s="35"/>
+    </row>
+    <row r="230" spans="1:20" ht="20" x14ac:dyDescent="0.35">
       <c r="A230" s="2">
         <v>230</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C230" s="2">
         <v>0.63</v>
@@ -15446,16 +15842,24 @@
         <v>21</v>
       </c>
       <c r="K230" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="L230" s="2"/>
-    </row>
-    <row r="231" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+        <v>401</v>
+      </c>
+      <c r="L230" s="32"/>
+      <c r="M230" s="35"/>
+      <c r="N230" s="35"/>
+      <c r="O230" s="35"/>
+      <c r="P230" s="35"/>
+      <c r="Q230" s="35"/>
+      <c r="R230" s="35"/>
+      <c r="S230" s="35"/>
+      <c r="T230" s="35"/>
+    </row>
+    <row r="231" spans="1:20" ht="20" x14ac:dyDescent="0.35">
       <c r="A231" s="2">
         <v>248</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C231" s="2">
         <v>1.95</v>
@@ -15482,7 +15886,7 @@
         <v>16</v>
       </c>
       <c r="K231" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L231" s="2">
         <v>1300</v>
@@ -15497,12 +15901,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="232" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:20" ht="20" x14ac:dyDescent="0.35">
       <c r="A232" s="2">
         <v>159</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C232" s="2">
         <v>0.79600000000000004</v>
@@ -15529,16 +15933,24 @@
         <v>16</v>
       </c>
       <c r="K232" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="L232" s="2"/>
-    </row>
-    <row r="233" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+        <v>287</v>
+      </c>
+      <c r="L232" s="32"/>
+      <c r="M232" s="35"/>
+      <c r="N232" s="35"/>
+      <c r="O232" s="35"/>
+      <c r="P232" s="35"/>
+      <c r="Q232" s="35"/>
+      <c r="R232" s="35"/>
+      <c r="S232" s="35"/>
+      <c r="T232" s="35"/>
+    </row>
+    <row r="233" spans="1:20" ht="20" x14ac:dyDescent="0.35">
       <c r="A233" s="2">
         <v>160</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C233" s="2">
         <v>2.2509999999999999</v>
@@ -15565,16 +15977,24 @@
         <v>16</v>
       </c>
       <c r="K233" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="L233" s="2"/>
-    </row>
-    <row r="234" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+        <v>287</v>
+      </c>
+      <c r="L233" s="32"/>
+      <c r="M233" s="35"/>
+      <c r="N233" s="35"/>
+      <c r="O233" s="35"/>
+      <c r="P233" s="35"/>
+      <c r="Q233" s="35"/>
+      <c r="R233" s="35"/>
+      <c r="S233" s="35"/>
+      <c r="T233" s="35"/>
+    </row>
+    <row r="234" spans="1:20" ht="20" x14ac:dyDescent="0.35">
       <c r="A234" s="2">
         <v>165</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C234" s="2">
         <v>0.92500000000000004</v>
@@ -15601,16 +16021,24 @@
         <v>16</v>
       </c>
       <c r="K234" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="L234" s="2"/>
-    </row>
-    <row r="235" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+        <v>287</v>
+      </c>
+      <c r="L234" s="32"/>
+      <c r="M234" s="35"/>
+      <c r="N234" s="35"/>
+      <c r="O234" s="35"/>
+      <c r="P234" s="35"/>
+      <c r="Q234" s="35"/>
+      <c r="R234" s="35"/>
+      <c r="S234" s="35"/>
+      <c r="T234" s="35"/>
+    </row>
+    <row r="235" spans="1:20" ht="20" x14ac:dyDescent="0.35">
       <c r="A235" s="2">
         <v>239</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C235" s="2">
         <v>1.2749999999999999</v>
@@ -15637,16 +16065,24 @@
         <v>16</v>
       </c>
       <c r="K235" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="L235" s="2"/>
-    </row>
-    <row r="236" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+        <v>287</v>
+      </c>
+      <c r="L235" s="32"/>
+      <c r="M235" s="35"/>
+      <c r="N235" s="35"/>
+      <c r="O235" s="35"/>
+      <c r="P235" s="35"/>
+      <c r="Q235" s="35"/>
+      <c r="R235" s="35"/>
+      <c r="S235" s="35"/>
+      <c r="T235" s="35"/>
+    </row>
+    <row r="236" spans="1:20" ht="20" x14ac:dyDescent="0.35">
       <c r="A236" s="2">
         <v>240</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C236" s="2">
         <v>1.2849999999999999</v>
@@ -15673,19 +16109,26 @@
         <v>16</v>
       </c>
       <c r="K236" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="L236" s="2"/>
-      <c r="P236" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="237" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+        <v>287</v>
+      </c>
+      <c r="L236" s="32"/>
+      <c r="M236" s="35"/>
+      <c r="N236" s="35"/>
+      <c r="O236" s="35"/>
+      <c r="P236" s="35" t="s">
+        <v>555</v>
+      </c>
+      <c r="Q236" s="35"/>
+      <c r="R236" s="35"/>
+      <c r="S236" s="35"/>
+      <c r="T236" s="35"/>
+    </row>
+    <row r="237" spans="1:20" ht="20" x14ac:dyDescent="0.35">
       <c r="A237" s="2">
         <v>268</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C237" s="2">
         <v>1.4</v>
@@ -15712,7 +16155,7 @@
         <v>16</v>
       </c>
       <c r="K237" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L237" s="2"/>
       <c r="M237">
@@ -15727,15 +16170,15 @@
         <v>8</v>
       </c>
       <c r="P237" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="238" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="238" spans="1:20" ht="20" x14ac:dyDescent="0.35">
       <c r="A238" s="2">
         <v>99</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C238" s="2">
         <v>0.55400000000000005</v>
@@ -15762,16 +16205,24 @@
         <v>16</v>
       </c>
       <c r="K238" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="L238" s="2"/>
-    </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.35">
+        <v>187</v>
+      </c>
+      <c r="L238" s="32"/>
+      <c r="M238" s="35"/>
+      <c r="N238" s="35"/>
+      <c r="O238" s="35"/>
+      <c r="P238" s="35"/>
+      <c r="Q238" s="35"/>
+      <c r="R238" s="35"/>
+      <c r="S238" s="35"/>
+      <c r="T238" s="35"/>
+    </row>
+    <row r="239" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A239" s="2">
         <v>98</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C239" s="2">
         <v>0.55300000000000005</v>
@@ -15798,16 +16249,24 @@
         <v>16</v>
       </c>
       <c r="K239" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="L239" s="2"/>
-    </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+      <c r="L239" s="32"/>
+      <c r="M239" s="35"/>
+      <c r="N239" s="35"/>
+      <c r="O239" s="35"/>
+      <c r="P239" s="35"/>
+      <c r="Q239" s="35"/>
+      <c r="R239" s="35"/>
+      <c r="S239" s="35"/>
+      <c r="T239" s="35"/>
+    </row>
+    <row r="240" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A240" s="2">
         <v>279</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C240" s="2">
         <v>0.55300000000000005</v>
@@ -15834,7 +16293,7 @@
         <v>16</v>
       </c>
       <c r="K240" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L240" s="2"/>
       <c r="M240">
@@ -15847,15 +16306,15 @@
         <v>9</v>
       </c>
       <c r="S240" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.35">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="241" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A241" s="2">
         <v>280</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C241" s="2">
         <v>0.55400000000000005</v>
@@ -15882,7 +16341,7 @@
         <v>16</v>
       </c>
       <c r="K241" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L241" s="2"/>
       <c r="M241">
@@ -15895,15 +16354,15 @@
         <v>7</v>
       </c>
       <c r="S241" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="242" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="242" spans="1:20" ht="20" x14ac:dyDescent="0.35">
       <c r="A242" s="2">
         <v>298</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C242" s="2">
         <v>0.94</v>
@@ -15930,7 +16389,7 @@
         <v>16</v>
       </c>
       <c r="K242" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L242" s="2">
         <v>1470.8</v>
@@ -15945,15 +16404,15 @@
         <v>24</v>
       </c>
       <c r="P242" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="243" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="243" spans="1:20" ht="20" x14ac:dyDescent="0.35">
       <c r="A243" s="2">
         <v>281</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C243" s="2">
         <v>5</v>
@@ -15980,7 +16439,7 @@
         <v>16</v>
       </c>
       <c r="K243" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L243" s="2"/>
       <c r="M243">
@@ -15995,12 +16454,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="244" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:20" ht="20" x14ac:dyDescent="0.35">
       <c r="A244" s="9">
         <v>282</v>
       </c>
       <c r="B244" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C244" s="9">
         <v>5</v>
@@ -16027,7 +16486,7 @@
         <v>16</v>
       </c>
       <c r="K244" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L244" s="9"/>
       <c r="M244">
@@ -16042,12 +16501,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A245" s="2">
         <v>247</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C245" s="2">
         <v>40</v>
@@ -16074,16 +16533,24 @@
         <v>21</v>
       </c>
       <c r="K245" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="L245" s="2"/>
-    </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.35">
+        <v>428</v>
+      </c>
+      <c r="L245" s="32"/>
+      <c r="M245" s="35"/>
+      <c r="N245" s="35"/>
+      <c r="O245" s="35"/>
+      <c r="P245" s="35"/>
+      <c r="Q245" s="35"/>
+      <c r="R245" s="35"/>
+      <c r="S245" s="35"/>
+      <c r="T245" s="35"/>
+    </row>
+    <row r="246" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A246" s="2">
         <v>178</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C246" s="2">
         <v>80.650000000000006</v>
@@ -16110,16 +16577,24 @@
         <v>26</v>
       </c>
       <c r="K246" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="L246" s="2"/>
-    </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.35">
+        <v>312</v>
+      </c>
+      <c r="L246" s="32"/>
+      <c r="M246" s="35"/>
+      <c r="N246" s="35"/>
+      <c r="O246" s="35"/>
+      <c r="P246" s="35"/>
+      <c r="Q246" s="35"/>
+      <c r="R246" s="35"/>
+      <c r="S246" s="35"/>
+      <c r="T246" s="35"/>
+    </row>
+    <row r="247" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A247" s="2">
         <v>203</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C247" s="2">
         <v>610</v>
@@ -16146,16 +16621,24 @@
         <v>21</v>
       </c>
       <c r="K247" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="L247" s="2"/>
-    </row>
-    <row r="248" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+        <v>356</v>
+      </c>
+      <c r="L247" s="32"/>
+      <c r="M247" s="35"/>
+      <c r="N247" s="35"/>
+      <c r="O247" s="35"/>
+      <c r="P247" s="35"/>
+      <c r="Q247" s="35"/>
+      <c r="R247" s="35"/>
+      <c r="S247" s="35"/>
+      <c r="T247" s="35"/>
+    </row>
+    <row r="248" spans="1:20" ht="20" x14ac:dyDescent="0.35">
       <c r="A248" s="2">
         <v>293</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C248" s="2">
         <v>249</v>
@@ -16182,16 +16665,24 @@
         <v>21</v>
       </c>
       <c r="K248" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="L248" s="2"/>
-    </row>
-    <row r="249" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+        <v>495</v>
+      </c>
+      <c r="L248" s="32"/>
+      <c r="M248" s="35"/>
+      <c r="N248" s="35"/>
+      <c r="O248" s="35"/>
+      <c r="P248" s="35"/>
+      <c r="Q248" s="35"/>
+      <c r="R248" s="35"/>
+      <c r="S248" s="35"/>
+      <c r="T248" s="35"/>
+    </row>
+    <row r="249" spans="1:20" ht="20" x14ac:dyDescent="0.35">
       <c r="A249" s="2">
         <v>195</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C249" s="2">
         <v>292.91000000000003</v>
@@ -16218,7 +16709,7 @@
         <v>16</v>
       </c>
       <c r="K249" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L249">
         <v>1103</v>
@@ -16233,12 +16724,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="250" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:20" ht="20" x14ac:dyDescent="0.35">
       <c r="A250" s="9">
         <v>267</v>
       </c>
       <c r="B250" s="9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C250" s="9">
         <v>31.47</v>
@@ -16265,7 +16756,7 @@
         <v>16</v>
       </c>
       <c r="K250" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L250" s="2">
         <v>1113</v>
@@ -16280,12 +16771,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="251" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:20" ht="20" x14ac:dyDescent="0.35">
       <c r="A251" s="2">
         <v>311</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C251" s="2">
         <v>149.43</v>
@@ -16312,7 +16803,7 @@
         <v>16</v>
       </c>
       <c r="K251" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L251" s="2"/>
       <c r="M251">
@@ -16325,18 +16816,18 @@
         <v>5</v>
       </c>
       <c r="P251" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="S251" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="252" spans="1:19" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="252" spans="1:20" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A252" s="4">
         <v>312</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C252" s="4">
         <v>2.7</v>
@@ -16363,7 +16854,7 @@
         <v>16</v>
       </c>
       <c r="K252" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L252">
         <v>1075</v>
@@ -16392,7 +16883,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16451,19 +16942,19 @@
       <c r="J2" s="30"/>
       <c r="K2" s="30"/>
       <c r="L2" t="s">
+        <v>524</v>
+      </c>
+      <c r="M2" t="s">
         <v>525</v>
       </c>
-      <c r="M2" t="s">
-        <v>526</v>
-      </c>
       <c r="N2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="O2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="Q2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
@@ -16471,7 +16962,7 @@
         <v>313</v>
       </c>
       <c r="B3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C3">
         <v>391</v>
@@ -16498,7 +16989,7 @@
         <v>40</v>
       </c>
       <c r="K3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L3">
         <v>-32.020000000000003</v>
@@ -16518,7 +17009,7 @@
         <v>314</v>
       </c>
       <c r="B4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C4">
         <v>16.64</v>
@@ -16545,7 +17036,7 @@
         <v>40</v>
       </c>
       <c r="K4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L4">
         <v>-33.32</v>
@@ -16565,7 +17056,7 @@
         <v>315</v>
       </c>
       <c r="B5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C5">
         <v>559</v>
@@ -16592,7 +17083,7 @@
         <v>40</v>
       </c>
       <c r="K5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L5">
         <v>-37</v>
@@ -16612,7 +17103,7 @@
         <v>316</v>
       </c>
       <c r="B6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C6">
         <v>0.6</v>
@@ -16639,7 +17130,7 @@
         <v>40</v>
       </c>
       <c r="K6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L6">
         <v>-35.130000000000003</v>
@@ -16659,7 +17150,7 @@
         <v>317</v>
       </c>
       <c r="B7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C7">
         <v>606</v>
@@ -16686,7 +17177,7 @@
         <v>40</v>
       </c>
       <c r="K7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L7">
         <v>-37.979999999999997</v>
@@ -16706,7 +17197,7 @@
         <v>318</v>
       </c>
       <c r="B8" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C8">
         <v>760</v>
@@ -16733,7 +17224,7 @@
         <v>40</v>
       </c>
       <c r="K8" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L8">
         <v>-38.15</v>
@@ -16753,7 +17244,7 @@
         <v>319</v>
       </c>
       <c r="B9" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C9">
         <v>1135.7</v>
@@ -16780,7 +17271,7 @@
         <v>40</v>
       </c>
       <c r="K9" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L9">
         <v>-36.979999999999997</v>
@@ -16800,7 +17291,7 @@
         <v>320</v>
       </c>
       <c r="B10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C10">
         <v>502</v>
@@ -16827,7 +17318,7 @@
         <v>40</v>
       </c>
       <c r="K10" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L10">
         <v>-38.26</v>
@@ -16847,7 +17338,7 @@
         <v>321</v>
       </c>
       <c r="B11" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C11">
         <v>673</v>
@@ -16874,7 +17365,7 @@
         <v>40</v>
       </c>
       <c r="K11" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L11">
         <v>-35.19</v>
@@ -16894,7 +17385,7 @@
         <v>322</v>
       </c>
       <c r="B12" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C12">
         <v>390</v>
@@ -16921,7 +17412,7 @@
         <v>40</v>
       </c>
       <c r="K12" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L12">
         <v>-35.53</v>
@@ -16941,7 +17432,7 @@
         <v>323</v>
       </c>
       <c r="B13" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C13">
         <v>3.2</v>
@@ -16968,7 +17459,7 @@
         <v>40</v>
       </c>
       <c r="K13" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L13">
         <v>-37.29</v>
@@ -16988,7 +17479,7 @@
         <v>324</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C14" s="10">
         <v>1.95</v>
@@ -17015,7 +17506,7 @@
         <v>40</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L14" s="10">
         <v>-35.119999999999997</v>
@@ -17030,10 +17521,10 @@
         <v>6</v>
       </c>
       <c r="P14" s="10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="Q14" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
@@ -17041,7 +17532,7 @@
         <v>325</v>
       </c>
       <c r="B15" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C15">
         <v>89</v>
@@ -17068,7 +17559,7 @@
         <v>40</v>
       </c>
       <c r="K15" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L15">
         <v>-38.32</v>
@@ -17088,7 +17579,7 @@
         <v>326</v>
       </c>
       <c r="B16" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C16">
         <v>243</v>
@@ -17115,7 +17606,7 @@
         <v>40</v>
       </c>
       <c r="K16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L16">
         <v>-34.700000000000003</v>
@@ -17135,7 +17626,7 @@
         <v>327</v>
       </c>
       <c r="B17" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C17">
         <v>26.35</v>
@@ -17162,7 +17653,7 @@
         <v>40</v>
       </c>
       <c r="K17" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L17">
         <v>-33.700000000000003</v>
@@ -17182,7 +17673,7 @@
         <v>328</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C18" s="10">
         <f>196.4/100</f>
@@ -17210,7 +17701,7 @@
         <v>40</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="L18" s="10">
         <v>-33.810141399699802</v>
@@ -17222,7 +17713,7 @@
         <v>10</v>
       </c>
       <c r="P18" s="10" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
@@ -17230,7 +17721,7 @@
         <v>329</v>
       </c>
       <c r="B19" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C19">
         <v>14500</v>
@@ -17257,7 +17748,7 @@
         <v>40</v>
       </c>
       <c r="K19" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L19">
         <v>16.433</v>
@@ -17272,7 +17763,7 @@
         <v>25</v>
       </c>
       <c r="Q19" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
@@ -17280,7 +17771,7 @@
         <v>330</v>
       </c>
       <c r="B20" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C20">
         <v>179752</v>
@@ -17307,7 +17798,7 @@
         <v>26</v>
       </c>
       <c r="K20" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="L20">
         <v>22.88</v>
@@ -17322,7 +17813,7 @@
         <v>50</v>
       </c>
       <c r="Q20" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
@@ -17330,7 +17821,7 @@
         <v>331</v>
       </c>
       <c r="B21" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C21">
         <v>3.44</v>
@@ -17357,7 +17848,7 @@
         <v>40</v>
       </c>
       <c r="K21" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="L21">
         <v>-33.295999999999999</v>
@@ -17372,7 +17863,7 @@
         <v>24</v>
       </c>
       <c r="Q21" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
@@ -17380,7 +17871,7 @@
         <v>332</v>
       </c>
       <c r="B22" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C22">
         <v>3.1</v>
@@ -17407,7 +17898,7 @@
         <v>40</v>
       </c>
       <c r="K22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="L22">
         <v>-45.713000000000001</v>
@@ -17422,7 +17913,7 @@
         <v>22</v>
       </c>
       <c r="Q22" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
@@ -17430,7 +17921,7 @@
         <v>333</v>
       </c>
       <c r="B23" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C23">
         <v>17299</v>
@@ -17457,7 +17948,7 @@
         <v>26</v>
       </c>
       <c r="K23" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="L23">
         <v>-19</v>
@@ -17477,7 +17968,7 @@
         <v>334</v>
       </c>
       <c r="B24" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C24">
         <v>16440</v>
@@ -17504,7 +17995,7 @@
         <v>26</v>
       </c>
       <c r="K24" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="L24">
         <v>-24.5</v>
@@ -17519,10 +18010,10 @@
         <v>80</v>
       </c>
       <c r="P24" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="Q24" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
@@ -17530,7 +18021,7 @@
         <v>335</v>
       </c>
       <c r="B25" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C25">
         <v>33000</v>
@@ -17557,7 +18048,7 @@
         <v>26</v>
       </c>
       <c r="K25" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="L25">
         <v>-10.87</v>
@@ -17572,7 +18063,7 @@
         <v>22</v>
       </c>
       <c r="Q25" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
@@ -17580,7 +18071,7 @@
         <v>336</v>
       </c>
       <c r="B26" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C26">
         <f>11.7*10000/10^6</f>
@@ -17608,7 +18099,7 @@
         <v>16</v>
       </c>
       <c r="K26" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L26">
         <v>-24.81</v>
@@ -17623,7 +18114,7 @@
         <v>25</v>
       </c>
       <c r="Q26" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -17631,7 +18122,7 @@
         <v>337</v>
       </c>
       <c r="B27" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C27">
         <v>104</v>
@@ -17658,7 +18149,7 @@
         <v>16</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L27">
         <f>35+53/60+48/3600</f>
@@ -17672,7 +18163,7 @@
         <v>5</v>
       </c>
       <c r="Q27" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
   </sheetData>
